--- a/Freedom/Freedom.TensorFlow/input/marketdata.export.20171227193809.xlsx
+++ b/Freedom/Freedom.TensorFlow/input/marketdata.export.20171227193809.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="marketdata.export.2017122719380" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -546,9 +552,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -891,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1478"/>
+  <dimension ref="A1:O1481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A800" workbookViewId="0">
-      <selection activeCell="O1478" sqref="O1478"/>
+    <sheetView tabSelected="1" topLeftCell="A1454" workbookViewId="0">
+      <selection activeCell="O1480" sqref="O1480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33742,7 +33751,7 @@
       <c r="M801" t="s">
         <v>14</v>
       </c>
-      <c r="N801" t="s">
+      <c r="N801" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -33786,7 +33795,7 @@
       <c r="M802" t="s">
         <v>13</v>
       </c>
-      <c r="N802" t="s">
+      <c r="N802" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -33830,7 +33839,7 @@
       <c r="M803" t="s">
         <v>13</v>
       </c>
-      <c r="N803" t="s">
+      <c r="N803" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -33874,7 +33883,7 @@
       <c r="M804" t="s">
         <v>14</v>
       </c>
-      <c r="N804" t="s">
+      <c r="N804" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -33918,7 +33927,7 @@
       <c r="M805" t="s">
         <v>13</v>
       </c>
-      <c r="N805" t="s">
+      <c r="N805" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -33962,7 +33971,7 @@
       <c r="M806" t="s">
         <v>13</v>
       </c>
-      <c r="N806" t="s">
+      <c r="N806" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -34006,7 +34015,7 @@
       <c r="M807" t="s">
         <v>13</v>
       </c>
-      <c r="N807" t="s">
+      <c r="N807" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -34050,7 +34059,7 @@
       <c r="M808" t="s">
         <v>13</v>
       </c>
-      <c r="N808" t="s">
+      <c r="N808" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -34094,12 +34103,12 @@
       <c r="M809" t="s">
         <v>13</v>
       </c>
-      <c r="N809" t="s">
-        <v>14</v>
+      <c r="N809" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O809">
         <f>IF(EXACT(N809,"B"),-E809, IF(EXACT(N809,"S"),E809,0))</f>
-        <v>-3938.08</v>
+        <v>3938.08</v>
       </c>
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.3">
@@ -34142,7 +34151,7 @@
       <c r="M810" t="s">
         <v>13</v>
       </c>
-      <c r="N810" t="s">
+      <c r="N810" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O810">
@@ -34190,7 +34199,7 @@
       <c r="M811" t="s">
         <v>13</v>
       </c>
-      <c r="N811" t="s">
+      <c r="N811" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O811">
@@ -34238,12 +34247,12 @@
       <c r="M812" t="s">
         <v>13</v>
       </c>
-      <c r="N812" t="s">
-        <v>13</v>
+      <c r="N812" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O812">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3994.08</v>
       </c>
     </row>
     <row r="813" spans="1:15" x14ac:dyDescent="0.3">
@@ -34286,12 +34295,12 @@
       <c r="M813" t="s">
         <v>13</v>
       </c>
-      <c r="N813" t="s">
-        <v>15</v>
+      <c r="N813" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O813">
         <f t="shared" si="0"/>
-        <v>3990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:15" x14ac:dyDescent="0.3">
@@ -34334,7 +34343,7 @@
       <c r="M814" t="s">
         <v>15</v>
       </c>
-      <c r="N814" t="s">
+      <c r="N814" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O814">
@@ -34382,7 +34391,7 @@
       <c r="M815" t="s">
         <v>13</v>
       </c>
-      <c r="N815" t="s">
+      <c r="N815" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O815">
@@ -34430,7 +34439,7 @@
       <c r="M816" t="s">
         <v>13</v>
       </c>
-      <c r="N816" t="s">
+      <c r="N816" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O816">
@@ -34478,7 +34487,7 @@
       <c r="M817" t="s">
         <v>13</v>
       </c>
-      <c r="N817" t="s">
+      <c r="N817" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O817">
@@ -34526,7 +34535,7 @@
       <c r="M818" t="s">
         <v>13</v>
       </c>
-      <c r="N818" t="s">
+      <c r="N818" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O818">
@@ -34574,12 +34583,12 @@
       <c r="M819" t="s">
         <v>13</v>
       </c>
-      <c r="N819" t="s">
-        <v>13</v>
+      <c r="N819" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O819">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3968.12</v>
       </c>
     </row>
     <row r="820" spans="1:15" x14ac:dyDescent="0.3">
@@ -34622,7 +34631,7 @@
       <c r="M820" t="s">
         <v>13</v>
       </c>
-      <c r="N820" t="s">
+      <c r="N820" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O820">
@@ -34670,7 +34679,7 @@
       <c r="M821" t="s">
         <v>13</v>
       </c>
-      <c r="N821" t="s">
+      <c r="N821" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O821">
@@ -34718,7 +34727,7 @@
       <c r="M822" t="s">
         <v>13</v>
       </c>
-      <c r="N822" t="s">
+      <c r="N822" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O822">
@@ -34766,7 +34775,7 @@
       <c r="M823" t="s">
         <v>13</v>
       </c>
-      <c r="N823" t="s">
+      <c r="N823" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O823">
@@ -34814,7 +34823,7 @@
       <c r="M824" t="s">
         <v>13</v>
       </c>
-      <c r="N824" t="s">
+      <c r="N824" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O824">
@@ -34862,7 +34871,7 @@
       <c r="M825" t="s">
         <v>13</v>
       </c>
-      <c r="N825" t="s">
+      <c r="N825" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O825">
@@ -34910,7 +34919,7 @@
       <c r="M826" t="s">
         <v>13</v>
       </c>
-      <c r="N826" t="s">
+      <c r="N826" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O826">
@@ -34958,7 +34967,7 @@
       <c r="M827" t="s">
         <v>13</v>
       </c>
-      <c r="N827" t="s">
+      <c r="N827" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O827">
@@ -35006,7 +35015,7 @@
       <c r="M828" t="s">
         <v>13</v>
       </c>
-      <c r="N828" t="s">
+      <c r="N828" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O828">
@@ -35054,12 +35063,12 @@
       <c r="M829" t="s">
         <v>13</v>
       </c>
-      <c r="N829" t="s">
-        <v>13</v>
+      <c r="N829" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O829">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3965.22</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.3">
@@ -35102,12 +35111,12 @@
       <c r="M830" t="s">
         <v>13</v>
       </c>
-      <c r="N830" t="s">
-        <v>13</v>
+      <c r="N830" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O830">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3946.04</v>
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.3">
@@ -35150,7 +35159,7 @@
       <c r="M831" t="s">
         <v>13</v>
       </c>
-      <c r="N831" t="s">
+      <c r="N831" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O831">
@@ -35198,7 +35207,7 @@
       <c r="M832" t="s">
         <v>13</v>
       </c>
-      <c r="N832" t="s">
+      <c r="N832" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O832">
@@ -35246,7 +35255,7 @@
       <c r="M833" t="s">
         <v>13</v>
       </c>
-      <c r="N833" t="s">
+      <c r="N833" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O833">
@@ -35294,7 +35303,7 @@
       <c r="M834" t="s">
         <v>13</v>
       </c>
-      <c r="N834" t="s">
+      <c r="N834" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O834">
@@ -35342,7 +35351,7 @@
       <c r="M835" t="s">
         <v>13</v>
       </c>
-      <c r="N835" t="s">
+      <c r="N835" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O835">
@@ -35390,7 +35399,7 @@
       <c r="M836" t="s">
         <v>13</v>
       </c>
-      <c r="N836" t="s">
+      <c r="N836" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O836">
@@ -35438,12 +35447,12 @@
       <c r="M837" t="s">
         <v>13</v>
       </c>
-      <c r="N837" t="s">
-        <v>14</v>
+      <c r="N837" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O837">
         <f t="shared" si="0"/>
-        <v>-3804</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.3">
@@ -35486,7 +35495,7 @@
       <c r="M838" t="s">
         <v>13</v>
       </c>
-      <c r="N838" t="s">
+      <c r="N838" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O838">
@@ -35534,7 +35543,7 @@
       <c r="M839" t="s">
         <v>13</v>
       </c>
-      <c r="N839" t="s">
+      <c r="N839" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O839">
@@ -35582,7 +35591,7 @@
       <c r="M840" t="s">
         <v>14</v>
       </c>
-      <c r="N840" t="s">
+      <c r="N840" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O840">
@@ -35630,7 +35639,7 @@
       <c r="M841" t="s">
         <v>13</v>
       </c>
-      <c r="N841" t="s">
+      <c r="N841" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O841">
@@ -35678,7 +35687,7 @@
       <c r="M842" t="s">
         <v>13</v>
       </c>
-      <c r="N842" t="s">
+      <c r="N842" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O842">
@@ -35726,7 +35735,7 @@
       <c r="M843" t="s">
         <v>13</v>
       </c>
-      <c r="N843" t="s">
+      <c r="N843" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O843">
@@ -35774,7 +35783,7 @@
       <c r="M844" t="s">
         <v>13</v>
       </c>
-      <c r="N844" t="s">
+      <c r="N844" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O844">
@@ -35822,7 +35831,7 @@
       <c r="M845" t="s">
         <v>15</v>
       </c>
-      <c r="N845" t="s">
+      <c r="N845" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O845">
@@ -35870,7 +35879,7 @@
       <c r="M846" t="s">
         <v>13</v>
       </c>
-      <c r="N846" t="s">
+      <c r="N846" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O846">
@@ -35918,7 +35927,7 @@
       <c r="M847" t="s">
         <v>13</v>
       </c>
-      <c r="N847" t="s">
+      <c r="N847" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O847">
@@ -35966,7 +35975,7 @@
       <c r="M848" t="s">
         <v>13</v>
       </c>
-      <c r="N848" t="s">
+      <c r="N848" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O848">
@@ -36014,7 +36023,7 @@
       <c r="M849" t="s">
         <v>13</v>
       </c>
-      <c r="N849" t="s">
+      <c r="N849" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O849">
@@ -36062,7 +36071,7 @@
       <c r="M850" t="s">
         <v>13</v>
       </c>
-      <c r="N850" t="s">
+      <c r="N850" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O850">
@@ -36110,7 +36119,7 @@
       <c r="M851" t="s">
         <v>13</v>
       </c>
-      <c r="N851" t="s">
+      <c r="N851" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O851">
@@ -36158,7 +36167,7 @@
       <c r="M852" t="s">
         <v>13</v>
       </c>
-      <c r="N852" t="s">
+      <c r="N852" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O852">
@@ -36206,7 +36215,7 @@
       <c r="M853" t="s">
         <v>13</v>
       </c>
-      <c r="N853" t="s">
+      <c r="N853" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O853">
@@ -36254,7 +36263,7 @@
       <c r="M854" t="s">
         <v>13</v>
       </c>
-      <c r="N854" t="s">
+      <c r="N854" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O854">
@@ -36302,7 +36311,7 @@
       <c r="M855" t="s">
         <v>13</v>
       </c>
-      <c r="N855" t="s">
+      <c r="N855" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O855">
@@ -36350,7 +36359,7 @@
       <c r="M856" t="s">
         <v>14</v>
       </c>
-      <c r="N856" t="s">
+      <c r="N856" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O856">
@@ -36398,7 +36407,7 @@
       <c r="M857" t="s">
         <v>14</v>
       </c>
-      <c r="N857" t="s">
+      <c r="N857" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O857">
@@ -36446,7 +36455,7 @@
       <c r="M858" t="s">
         <v>13</v>
       </c>
-      <c r="N858" t="s">
+      <c r="N858" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O858">
@@ -36494,7 +36503,7 @@
       <c r="M859" t="s">
         <v>13</v>
       </c>
-      <c r="N859" t="s">
+      <c r="N859" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O859">
@@ -36542,7 +36551,7 @@
       <c r="M860" t="s">
         <v>13</v>
       </c>
-      <c r="N860" t="s">
+      <c r="N860" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O860">
@@ -36590,7 +36599,7 @@
       <c r="M861" t="s">
         <v>13</v>
       </c>
-      <c r="N861" t="s">
+      <c r="N861" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O861">
@@ -36638,7 +36647,7 @@
       <c r="M862" t="s">
         <v>13</v>
       </c>
-      <c r="N862" t="s">
+      <c r="N862" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O862">
@@ -36686,7 +36695,7 @@
       <c r="M863" t="s">
         <v>13</v>
       </c>
-      <c r="N863" t="s">
+      <c r="N863" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O863">
@@ -36734,7 +36743,7 @@
       <c r="M864" t="s">
         <v>13</v>
       </c>
-      <c r="N864" t="s">
+      <c r="N864" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O864">
@@ -36782,7 +36791,7 @@
       <c r="M865" t="s">
         <v>13</v>
       </c>
-      <c r="N865" t="s">
+      <c r="N865" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O865">
@@ -36830,7 +36839,7 @@
       <c r="M866" t="s">
         <v>13</v>
       </c>
-      <c r="N866" t="s">
+      <c r="N866" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O866">
@@ -36878,7 +36887,7 @@
       <c r="M867" t="s">
         <v>15</v>
       </c>
-      <c r="N867" t="s">
+      <c r="N867" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O867">
@@ -36926,7 +36935,7 @@
       <c r="M868" t="s">
         <v>13</v>
       </c>
-      <c r="N868" t="s">
+      <c r="N868" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O868">
@@ -36974,7 +36983,7 @@
       <c r="M869" t="s">
         <v>13</v>
       </c>
-      <c r="N869" t="s">
+      <c r="N869" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O869">
@@ -37022,7 +37031,7 @@
       <c r="M870" t="s">
         <v>13</v>
       </c>
-      <c r="N870" t="s">
+      <c r="N870" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O870">
@@ -37070,7 +37079,7 @@
       <c r="M871" t="s">
         <v>13</v>
       </c>
-      <c r="N871" t="s">
+      <c r="N871" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O871">
@@ -37118,7 +37127,7 @@
       <c r="M872" t="s">
         <v>13</v>
       </c>
-      <c r="N872" t="s">
+      <c r="N872" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O872">
@@ -37166,7 +37175,7 @@
       <c r="M873" t="s">
         <v>13</v>
       </c>
-      <c r="N873" t="s">
+      <c r="N873" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O873">
@@ -37214,7 +37223,7 @@
       <c r="M874" t="s">
         <v>13</v>
       </c>
-      <c r="N874" t="s">
+      <c r="N874" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O874">
@@ -37262,7 +37271,7 @@
       <c r="M875" t="s">
         <v>13</v>
       </c>
-      <c r="N875" t="s">
+      <c r="N875" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O875">
@@ -37310,7 +37319,7 @@
       <c r="M876" t="s">
         <v>13</v>
       </c>
-      <c r="N876" t="s">
+      <c r="N876" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O876">
@@ -37358,12 +37367,12 @@
       <c r="M877" t="s">
         <v>13</v>
       </c>
-      <c r="N877" t="s">
-        <v>13</v>
+      <c r="N877" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O877">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3669.93</v>
       </c>
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.3">
@@ -37406,7 +37415,7 @@
       <c r="M878" t="s">
         <v>13</v>
       </c>
-      <c r="N878" t="s">
+      <c r="N878" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O878">
@@ -37454,7 +37463,7 @@
       <c r="M879" t="s">
         <v>13</v>
       </c>
-      <c r="N879" t="s">
+      <c r="N879" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O879">
@@ -37502,12 +37511,12 @@
       <c r="M880" t="s">
         <v>13</v>
       </c>
-      <c r="N880" t="s">
-        <v>13</v>
+      <c r="N880" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O880">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3695.58</v>
       </c>
     </row>
     <row r="881" spans="1:15" x14ac:dyDescent="0.3">
@@ -37550,7 +37559,7 @@
       <c r="M881" t="s">
         <v>13</v>
       </c>
-      <c r="N881" t="s">
+      <c r="N881" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O881">
@@ -37598,7 +37607,7 @@
       <c r="M882" t="s">
         <v>13</v>
       </c>
-      <c r="N882" t="s">
+      <c r="N882" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O882">
@@ -37646,7 +37655,7 @@
       <c r="M883" t="s">
         <v>13</v>
       </c>
-      <c r="N883" t="s">
+      <c r="N883" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O883">
@@ -37694,7 +37703,7 @@
       <c r="M884" t="s">
         <v>13</v>
       </c>
-      <c r="N884" t="s">
+      <c r="N884" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O884">
@@ -37742,7 +37751,7 @@
       <c r="M885" t="s">
         <v>13</v>
       </c>
-      <c r="N885" t="s">
+      <c r="N885" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O885">
@@ -37790,7 +37799,7 @@
       <c r="M886" t="s">
         <v>13</v>
       </c>
-      <c r="N886" t="s">
+      <c r="N886" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O886">
@@ -37838,7 +37847,7 @@
       <c r="M887" t="s">
         <v>13</v>
       </c>
-      <c r="N887" t="s">
+      <c r="N887" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O887">
@@ -37886,7 +37895,7 @@
       <c r="M888" t="s">
         <v>13</v>
       </c>
-      <c r="N888" t="s">
+      <c r="N888" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O888">
@@ -37934,7 +37943,7 @@
       <c r="M889" t="s">
         <v>13</v>
       </c>
-      <c r="N889" t="s">
+      <c r="N889" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O889">
@@ -37982,7 +37991,7 @@
       <c r="M890" t="s">
         <v>13</v>
       </c>
-      <c r="N890" t="s">
+      <c r="N890" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O890">
@@ -38030,7 +38039,7 @@
       <c r="M891" t="s">
         <v>13</v>
       </c>
-      <c r="N891" t="s">
+      <c r="N891" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O891">
@@ -38078,7 +38087,7 @@
       <c r="M892" t="s">
         <v>13</v>
       </c>
-      <c r="N892" t="s">
+      <c r="N892" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O892">
@@ -38126,7 +38135,7 @@
       <c r="M893" t="s">
         <v>13</v>
       </c>
-      <c r="N893" t="s">
+      <c r="N893" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O893">
@@ -38174,7 +38183,7 @@
       <c r="M894" t="s">
         <v>13</v>
       </c>
-      <c r="N894" t="s">
+      <c r="N894" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O894">
@@ -38222,7 +38231,7 @@
       <c r="M895" t="s">
         <v>13</v>
       </c>
-      <c r="N895" t="s">
+      <c r="N895" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O895">
@@ -38270,12 +38279,12 @@
       <c r="M896" t="s">
         <v>13</v>
       </c>
-      <c r="N896" t="s">
-        <v>14</v>
+      <c r="N896" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O896">
         <f t="shared" si="1"/>
-        <v>-3350.2</v>
+        <v>3350.2</v>
       </c>
     </row>
     <row r="897" spans="1:15" x14ac:dyDescent="0.3">
@@ -38318,7 +38327,7 @@
       <c r="M897" t="s">
         <v>13</v>
       </c>
-      <c r="N897" t="s">
+      <c r="N897" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O897">
@@ -38366,7 +38375,7 @@
       <c r="M898" t="s">
         <v>13</v>
       </c>
-      <c r="N898" t="s">
+      <c r="N898" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O898">
@@ -38414,7 +38423,7 @@
       <c r="M899" t="s">
         <v>13</v>
       </c>
-      <c r="N899" t="s">
+      <c r="N899" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O899">
@@ -38462,7 +38471,7 @@
       <c r="M900" t="s">
         <v>13</v>
       </c>
-      <c r="N900" t="s">
+      <c r="N900" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O900">
@@ -38510,7 +38519,7 @@
       <c r="M901" t="s">
         <v>13</v>
       </c>
-      <c r="N901" t="s">
+      <c r="N901" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O901">
@@ -38558,7 +38567,7 @@
       <c r="M902" t="s">
         <v>13</v>
       </c>
-      <c r="N902" t="s">
+      <c r="N902" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O902">
@@ -38606,7 +38615,7 @@
       <c r="M903" t="s">
         <v>13</v>
       </c>
-      <c r="N903" t="s">
+      <c r="N903" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O903">
@@ -38654,7 +38663,7 @@
       <c r="M904" t="s">
         <v>13</v>
       </c>
-      <c r="N904" t="s">
+      <c r="N904" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O904">
@@ -38702,7 +38711,7 @@
       <c r="M905" t="s">
         <v>13</v>
       </c>
-      <c r="N905" t="s">
+      <c r="N905" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O905">
@@ -38750,7 +38759,7 @@
       <c r="M906" t="s">
         <v>13</v>
       </c>
-      <c r="N906" t="s">
+      <c r="N906" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O906">
@@ -38798,12 +38807,12 @@
       <c r="M907" t="s">
         <v>13</v>
       </c>
-      <c r="N907" t="s">
-        <v>13</v>
+      <c r="N907" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O907">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3097.6</v>
       </c>
     </row>
     <row r="908" spans="1:15" x14ac:dyDescent="0.3">
@@ -38846,12 +38855,12 @@
       <c r="M908" t="s">
         <v>13</v>
       </c>
-      <c r="N908" t="s">
-        <v>13</v>
+      <c r="N908" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O908">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.3">
@@ -38894,7 +38903,7 @@
       <c r="M909" t="s">
         <v>13</v>
       </c>
-      <c r="N909" t="s">
+      <c r="N909" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O909">
@@ -38942,12 +38951,12 @@
       <c r="M910" t="s">
         <v>14</v>
       </c>
-      <c r="N910" t="s">
-        <v>13</v>
+      <c r="N910" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O910">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="911" spans="1:15" x14ac:dyDescent="0.3">
@@ -38990,7 +38999,7 @@
       <c r="M911" t="s">
         <v>13</v>
       </c>
-      <c r="N911" t="s">
+      <c r="N911" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O911">
@@ -39038,7 +39047,7 @@
       <c r="M912" t="s">
         <v>14</v>
       </c>
-      <c r="N912" t="s">
+      <c r="N912" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O912">
@@ -39086,12 +39095,12 @@
       <c r="M913" t="s">
         <v>14</v>
       </c>
-      <c r="N913" t="s">
-        <v>15</v>
+      <c r="N913" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O913">
         <f t="shared" si="1"/>
-        <v>2771.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.3">
@@ -39134,7 +39143,7 @@
       <c r="M914" t="s">
         <v>13</v>
       </c>
-      <c r="N914" t="s">
+      <c r="N914" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O914">
@@ -39182,7 +39191,7 @@
       <c r="M915" t="s">
         <v>13</v>
       </c>
-      <c r="N915" t="s">
+      <c r="N915" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O915">
@@ -39230,7 +39239,7 @@
       <c r="M916" t="s">
         <v>13</v>
       </c>
-      <c r="N916" t="s">
+      <c r="N916" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O916">
@@ -39278,7 +39287,7 @@
       <c r="M917" t="s">
         <v>14</v>
       </c>
-      <c r="N917" t="s">
+      <c r="N917" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O917">
@@ -39326,7 +39335,7 @@
       <c r="M918" t="s">
         <v>14</v>
       </c>
-      <c r="N918" t="s">
+      <c r="N918" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O918">
@@ -39374,7 +39383,7 @@
       <c r="M919" t="s">
         <v>14</v>
       </c>
-      <c r="N919" t="s">
+      <c r="N919" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O919">
@@ -39422,12 +39431,12 @@
       <c r="M920" t="s">
         <v>14</v>
       </c>
-      <c r="N920" t="s">
-        <v>14</v>
+      <c r="N920" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O920">
         <f t="shared" si="1"/>
-        <v>-2950</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.3">
@@ -39470,12 +39479,12 @@
       <c r="M921" t="s">
         <v>15</v>
       </c>
-      <c r="N921" t="s">
-        <v>13</v>
+      <c r="N921" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O921">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.3">
@@ -39518,12 +39527,12 @@
       <c r="M922" t="s">
         <v>14</v>
       </c>
-      <c r="N922" t="s">
-        <v>15</v>
+      <c r="N922" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O922">
         <f t="shared" si="1"/>
-        <v>3119.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.3">
@@ -39566,7 +39575,7 @@
       <c r="M923" t="s">
         <v>13</v>
       </c>
-      <c r="N923" t="s">
+      <c r="N923" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O923">
@@ -39614,7 +39623,7 @@
       <c r="M924" t="s">
         <v>15</v>
       </c>
-      <c r="N924" t="s">
+      <c r="N924" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O924">
@@ -39662,7 +39671,7 @@
       <c r="M925" t="s">
         <v>13</v>
       </c>
-      <c r="N925" t="s">
+      <c r="N925" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O925">
@@ -39710,7 +39719,7 @@
       <c r="M926" t="s">
         <v>13</v>
       </c>
-      <c r="N926" t="s">
+      <c r="N926" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O926">
@@ -39758,7 +39767,7 @@
       <c r="M927" t="s">
         <v>13</v>
       </c>
-      <c r="N927" t="s">
+      <c r="N927" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O927">
@@ -39806,7 +39815,7 @@
       <c r="M928" t="s">
         <v>13</v>
       </c>
-      <c r="N928" t="s">
+      <c r="N928" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O928">
@@ -39854,7 +39863,7 @@
       <c r="M929" t="s">
         <v>15</v>
       </c>
-      <c r="N929" t="s">
+      <c r="N929" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O929">
@@ -39902,7 +39911,7 @@
       <c r="M930" t="s">
         <v>15</v>
       </c>
-      <c r="N930" t="s">
+      <c r="N930" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O930">
@@ -39950,7 +39959,7 @@
       <c r="M931" t="s">
         <v>13</v>
       </c>
-      <c r="N931" t="s">
+      <c r="N931" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O931">
@@ -39998,7 +40007,7 @@
       <c r="M932" t="s">
         <v>13</v>
       </c>
-      <c r="N932" t="s">
+      <c r="N932" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O932">
@@ -40046,7 +40055,7 @@
       <c r="M933" t="s">
         <v>13</v>
       </c>
-      <c r="N933" t="s">
+      <c r="N933" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O933">
@@ -40094,7 +40103,7 @@
       <c r="M934" t="s">
         <v>13</v>
       </c>
-      <c r="N934" t="s">
+      <c r="N934" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O934">
@@ -40142,7 +40151,7 @@
       <c r="M935" t="s">
         <v>15</v>
       </c>
-      <c r="N935" t="s">
+      <c r="N935" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O935">
@@ -40190,7 +40199,7 @@
       <c r="M936" t="s">
         <v>13</v>
       </c>
-      <c r="N936" t="s">
+      <c r="N936" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O936">
@@ -40238,7 +40247,7 @@
       <c r="M937" t="s">
         <v>13</v>
       </c>
-      <c r="N937" t="s">
+      <c r="N937" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O937">
@@ -40286,7 +40295,7 @@
       <c r="M938" t="s">
         <v>13</v>
       </c>
-      <c r="N938" t="s">
+      <c r="N938" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O938">
@@ -40334,7 +40343,7 @@
       <c r="M939" t="s">
         <v>13</v>
       </c>
-      <c r="N939" t="s">
+      <c r="N939" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O939">
@@ -40382,7 +40391,7 @@
       <c r="M940" t="s">
         <v>13</v>
       </c>
-      <c r="N940" t="s">
+      <c r="N940" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O940">
@@ -40430,7 +40439,7 @@
       <c r="M941" t="s">
         <v>14</v>
       </c>
-      <c r="N941" t="s">
+      <c r="N941" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O941">
@@ -40478,7 +40487,7 @@
       <c r="M942" t="s">
         <v>13</v>
       </c>
-      <c r="N942" t="s">
+      <c r="N942" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O942">
@@ -40526,7 +40535,7 @@
       <c r="M943" t="s">
         <v>14</v>
       </c>
-      <c r="N943" t="s">
+      <c r="N943" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O943">
@@ -40574,7 +40583,7 @@
       <c r="M944" t="s">
         <v>14</v>
       </c>
-      <c r="N944" t="s">
+      <c r="N944" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O944">
@@ -40622,7 +40631,7 @@
       <c r="M945" t="s">
         <v>13</v>
       </c>
-      <c r="N945" t="s">
+      <c r="N945" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O945">
@@ -40670,7 +40679,7 @@
       <c r="M946" t="s">
         <v>13</v>
       </c>
-      <c r="N946" t="s">
+      <c r="N946" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O946">
@@ -40718,7 +40727,7 @@
       <c r="M947" t="s">
         <v>13</v>
       </c>
-      <c r="N947" t="s">
+      <c r="N947" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O947">
@@ -40766,7 +40775,7 @@
       <c r="M948" t="s">
         <v>13</v>
       </c>
-      <c r="N948" t="s">
+      <c r="N948" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O948">
@@ -40814,7 +40823,7 @@
       <c r="M949" t="s">
         <v>14</v>
       </c>
-      <c r="N949" t="s">
+      <c r="N949" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O949">
@@ -40862,7 +40871,7 @@
       <c r="M950" t="s">
         <v>14</v>
       </c>
-      <c r="N950" t="s">
+      <c r="N950" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O950">
@@ -40910,7 +40919,7 @@
       <c r="M951" t="s">
         <v>14</v>
       </c>
-      <c r="N951" t="s">
+      <c r="N951" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O951">
@@ -40958,7 +40967,7 @@
       <c r="M952" t="s">
         <v>13</v>
       </c>
-      <c r="N952" t="s">
+      <c r="N952" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O952">
@@ -41006,7 +41015,7 @@
       <c r="M953" t="s">
         <v>13</v>
       </c>
-      <c r="N953" t="s">
+      <c r="N953" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O953">
@@ -41054,7 +41063,7 @@
       <c r="M954" t="s">
         <v>13</v>
       </c>
-      <c r="N954" t="s">
+      <c r="N954" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O954">
@@ -41102,7 +41111,7 @@
       <c r="M955" t="s">
         <v>13</v>
       </c>
-      <c r="N955" t="s">
+      <c r="N955" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O955">
@@ -41150,7 +41159,7 @@
       <c r="M956" t="s">
         <v>13</v>
       </c>
-      <c r="N956" t="s">
+      <c r="N956" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O956">
@@ -41198,7 +41207,7 @@
       <c r="M957" t="s">
         <v>13</v>
       </c>
-      <c r="N957" t="s">
+      <c r="N957" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O957">
@@ -41246,7 +41255,7 @@
       <c r="M958" t="s">
         <v>13</v>
       </c>
-      <c r="N958" t="s">
+      <c r="N958" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O958">
@@ -41294,7 +41303,7 @@
       <c r="M959" t="s">
         <v>13</v>
       </c>
-      <c r="N959" t="s">
+      <c r="N959" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O959">
@@ -41342,7 +41351,7 @@
       <c r="M960" t="s">
         <v>15</v>
       </c>
-      <c r="N960" t="s">
+      <c r="N960" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O960">
@@ -41390,7 +41399,7 @@
       <c r="M961" t="s">
         <v>13</v>
       </c>
-      <c r="N961" t="s">
+      <c r="N961" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O961">
@@ -41438,7 +41447,7 @@
       <c r="M962" t="s">
         <v>13</v>
       </c>
-      <c r="N962" t="s">
+      <c r="N962" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O962">
@@ -41486,7 +41495,7 @@
       <c r="M963" t="s">
         <v>13</v>
       </c>
-      <c r="N963" t="s">
+      <c r="N963" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O963">
@@ -41534,7 +41543,7 @@
       <c r="M964" t="s">
         <v>13</v>
       </c>
-      <c r="N964" t="s">
+      <c r="N964" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O964">
@@ -41582,7 +41591,7 @@
       <c r="M965" t="s">
         <v>13</v>
       </c>
-      <c r="N965" t="s">
+      <c r="N965" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O965">
@@ -41630,7 +41639,7 @@
       <c r="M966" t="s">
         <v>13</v>
       </c>
-      <c r="N966" t="s">
+      <c r="N966" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O966">
@@ -41678,7 +41687,7 @@
       <c r="M967" t="s">
         <v>15</v>
       </c>
-      <c r="N967" t="s">
+      <c r="N967" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O967">
@@ -41726,7 +41735,7 @@
       <c r="M968" t="s">
         <v>13</v>
       </c>
-      <c r="N968" t="s">
+      <c r="N968" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O968">
@@ -41774,7 +41783,7 @@
       <c r="M969" t="s">
         <v>13</v>
       </c>
-      <c r="N969" t="s">
+      <c r="N969" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O969">
@@ -41822,7 +41831,7 @@
       <c r="M970" t="s">
         <v>13</v>
       </c>
-      <c r="N970" t="s">
+      <c r="N970" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O970">
@@ -41870,7 +41879,7 @@
       <c r="M971" t="s">
         <v>13</v>
       </c>
-      <c r="N971" t="s">
+      <c r="N971" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O971">
@@ -41918,7 +41927,7 @@
       <c r="M972" t="s">
         <v>13</v>
       </c>
-      <c r="N972" t="s">
+      <c r="N972" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O972">
@@ -41966,7 +41975,7 @@
       <c r="M973" t="s">
         <v>13</v>
       </c>
-      <c r="N973" t="s">
+      <c r="N973" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O973">
@@ -42014,7 +42023,7 @@
       <c r="M974" t="s">
         <v>13</v>
       </c>
-      <c r="N974" t="s">
+      <c r="N974" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O974">
@@ -42062,7 +42071,7 @@
       <c r="M975" t="s">
         <v>13</v>
       </c>
-      <c r="N975" t="s">
+      <c r="N975" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O975">
@@ -42110,7 +42119,7 @@
       <c r="M976" t="s">
         <v>13</v>
       </c>
-      <c r="N976" t="s">
+      <c r="N976" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O976">
@@ -42158,7 +42167,7 @@
       <c r="M977" t="s">
         <v>13</v>
       </c>
-      <c r="N977" t="s">
+      <c r="N977" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O977">
@@ -42206,7 +42215,7 @@
       <c r="M978" t="s">
         <v>13</v>
       </c>
-      <c r="N978" t="s">
+      <c r="N978" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O978">
@@ -42254,7 +42263,7 @@
       <c r="M979" t="s">
         <v>13</v>
       </c>
-      <c r="N979" t="s">
+      <c r="N979" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O979">
@@ -42302,7 +42311,7 @@
       <c r="M980" t="s">
         <v>13</v>
       </c>
-      <c r="N980" t="s">
+      <c r="N980" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O980">
@@ -42350,7 +42359,7 @@
       <c r="M981" t="s">
         <v>13</v>
       </c>
-      <c r="N981" t="s">
+      <c r="N981" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O981">
@@ -42398,7 +42407,7 @@
       <c r="M982" t="s">
         <v>13</v>
       </c>
-      <c r="N982" t="s">
+      <c r="N982" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O982">
@@ -42446,7 +42455,7 @@
       <c r="M983" t="s">
         <v>13</v>
       </c>
-      <c r="N983" t="s">
+      <c r="N983" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O983">
@@ -42494,7 +42503,7 @@
       <c r="M984" t="s">
         <v>13</v>
       </c>
-      <c r="N984" t="s">
+      <c r="N984" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O984">
@@ -42542,7 +42551,7 @@
       <c r="M985" t="s">
         <v>13</v>
       </c>
-      <c r="N985" t="s">
+      <c r="N985" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O985">
@@ -42590,7 +42599,7 @@
       <c r="M986" t="s">
         <v>13</v>
       </c>
-      <c r="N986" t="s">
+      <c r="N986" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O986">
@@ -42638,7 +42647,7 @@
       <c r="M987" t="s">
         <v>13</v>
       </c>
-      <c r="N987" t="s">
+      <c r="N987" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O987">
@@ -42686,7 +42695,7 @@
       <c r="M988" t="s">
         <v>13</v>
       </c>
-      <c r="N988" t="s">
+      <c r="N988" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O988">
@@ -42734,7 +42743,7 @@
       <c r="M989" t="s">
         <v>13</v>
       </c>
-      <c r="N989" t="s">
+      <c r="N989" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O989">
@@ -42782,7 +42791,7 @@
       <c r="M990" t="s">
         <v>13</v>
       </c>
-      <c r="N990" t="s">
+      <c r="N990" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O990">
@@ -42830,7 +42839,7 @@
       <c r="M991" t="s">
         <v>13</v>
       </c>
-      <c r="N991" t="s">
+      <c r="N991" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O991">
@@ -42878,7 +42887,7 @@
       <c r="M992" t="s">
         <v>13</v>
       </c>
-      <c r="N992" t="s">
+      <c r="N992" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O992">
@@ -42926,7 +42935,7 @@
       <c r="M993" t="s">
         <v>13</v>
       </c>
-      <c r="N993" t="s">
+      <c r="N993" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O993">
@@ -42974,7 +42983,7 @@
       <c r="M994" t="s">
         <v>13</v>
       </c>
-      <c r="N994" t="s">
+      <c r="N994" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O994">
@@ -43022,7 +43031,7 @@
       <c r="M995" t="s">
         <v>13</v>
       </c>
-      <c r="N995" t="s">
+      <c r="N995" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O995">
@@ -43070,7 +43079,7 @@
       <c r="M996" t="s">
         <v>13</v>
       </c>
-      <c r="N996" t="s">
+      <c r="N996" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O996">
@@ -43118,7 +43127,7 @@
       <c r="M997" t="s">
         <v>13</v>
       </c>
-      <c r="N997" t="s">
+      <c r="N997" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O997">
@@ -43166,7 +43175,7 @@
       <c r="M998" t="s">
         <v>13</v>
       </c>
-      <c r="N998" t="s">
+      <c r="N998" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O998">
@@ -43214,7 +43223,7 @@
       <c r="M999" t="s">
         <v>13</v>
       </c>
-      <c r="N999" t="s">
+      <c r="N999" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O999">
@@ -43262,7 +43271,7 @@
       <c r="M1000" t="s">
         <v>13</v>
       </c>
-      <c r="N1000" t="s">
+      <c r="N1000" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1000">
@@ -43310,7 +43319,7 @@
       <c r="M1001" t="s">
         <v>13</v>
       </c>
-      <c r="N1001" t="s">
+      <c r="N1001" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1001">
@@ -43358,7 +43367,7 @@
       <c r="M1002" t="s">
         <v>13</v>
       </c>
-      <c r="N1002" t="s">
+      <c r="N1002" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1002">
@@ -43406,7 +43415,7 @@
       <c r="M1003" t="s">
         <v>13</v>
       </c>
-      <c r="N1003" t="s">
+      <c r="N1003" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1003">
@@ -43454,7 +43463,7 @@
       <c r="M1004" t="s">
         <v>13</v>
       </c>
-      <c r="N1004" t="s">
+      <c r="N1004" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1004">
@@ -43502,7 +43511,7 @@
       <c r="M1005" t="s">
         <v>14</v>
       </c>
-      <c r="N1005" t="s">
+      <c r="N1005" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1005">
@@ -43550,7 +43559,7 @@
       <c r="M1006" t="s">
         <v>14</v>
       </c>
-      <c r="N1006" t="s">
+      <c r="N1006" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1006">
@@ -43598,7 +43607,7 @@
       <c r="M1007" t="s">
         <v>13</v>
       </c>
-      <c r="N1007" t="s">
+      <c r="N1007" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1007">
@@ -43646,7 +43655,7 @@
       <c r="M1008" t="s">
         <v>13</v>
       </c>
-      <c r="N1008" t="s">
+      <c r="N1008" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1008">
@@ -43694,7 +43703,7 @@
       <c r="M1009" t="s">
         <v>13</v>
       </c>
-      <c r="N1009" t="s">
+      <c r="N1009" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1009">
@@ -43742,7 +43751,7 @@
       <c r="M1010" t="s">
         <v>13</v>
       </c>
-      <c r="N1010" t="s">
+      <c r="N1010" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1010">
@@ -43790,7 +43799,7 @@
       <c r="M1011" t="s">
         <v>13</v>
       </c>
-      <c r="N1011" t="s">
+      <c r="N1011" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1011">
@@ -43838,7 +43847,7 @@
       <c r="M1012" t="s">
         <v>13</v>
       </c>
-      <c r="N1012" t="s">
+      <c r="N1012" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1012">
@@ -43886,7 +43895,7 @@
       <c r="M1013" t="s">
         <v>13</v>
       </c>
-      <c r="N1013" t="s">
+      <c r="N1013" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1013">
@@ -43934,7 +43943,7 @@
       <c r="M1014" t="s">
         <v>13</v>
       </c>
-      <c r="N1014" t="s">
+      <c r="N1014" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1014">
@@ -43982,7 +43991,7 @@
       <c r="M1015" t="s">
         <v>13</v>
       </c>
-      <c r="N1015" t="s">
+      <c r="N1015" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1015">
@@ -44030,7 +44039,7 @@
       <c r="M1016" t="s">
         <v>15</v>
       </c>
-      <c r="N1016" t="s">
+      <c r="N1016" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1016">
@@ -44078,7 +44087,7 @@
       <c r="M1017" t="s">
         <v>13</v>
       </c>
-      <c r="N1017" t="s">
+      <c r="N1017" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1017">
@@ -44126,7 +44135,7 @@
       <c r="M1018" t="s">
         <v>13</v>
       </c>
-      <c r="N1018" t="s">
+      <c r="N1018" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1018">
@@ -44174,7 +44183,7 @@
       <c r="M1019" t="s">
         <v>13</v>
       </c>
-      <c r="N1019" t="s">
+      <c r="N1019" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1019">
@@ -44222,7 +44231,7 @@
       <c r="M1020" t="s">
         <v>13</v>
       </c>
-      <c r="N1020" t="s">
+      <c r="N1020" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1020">
@@ -44270,7 +44279,7 @@
       <c r="M1021" t="s">
         <v>13</v>
       </c>
-      <c r="N1021" t="s">
+      <c r="N1021" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1021">
@@ -44318,7 +44327,7 @@
       <c r="M1022" t="s">
         <v>13</v>
       </c>
-      <c r="N1022" t="s">
+      <c r="N1022" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1022">
@@ -44366,7 +44375,7 @@
       <c r="M1023" t="s">
         <v>13</v>
       </c>
-      <c r="N1023" t="s">
+      <c r="N1023" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1023">
@@ -44414,7 +44423,7 @@
       <c r="M1024" t="s">
         <v>13</v>
       </c>
-      <c r="N1024" t="s">
+      <c r="N1024" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1024">
@@ -44462,7 +44471,7 @@
       <c r="M1025" t="s">
         <v>14</v>
       </c>
-      <c r="N1025" t="s">
+      <c r="N1025" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1025">
@@ -44510,7 +44519,7 @@
       <c r="M1026" t="s">
         <v>13</v>
       </c>
-      <c r="N1026" t="s">
+      <c r="N1026" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1026">
@@ -44558,7 +44567,7 @@
       <c r="M1027" t="s">
         <v>13</v>
       </c>
-      <c r="N1027" t="s">
+      <c r="N1027" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1027">
@@ -44606,7 +44615,7 @@
       <c r="M1028" t="s">
         <v>13</v>
       </c>
-      <c r="N1028" t="s">
+      <c r="N1028" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1028">
@@ -44654,7 +44663,7 @@
       <c r="M1029" t="s">
         <v>13</v>
       </c>
-      <c r="N1029" t="s">
+      <c r="N1029" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1029">
@@ -44702,7 +44711,7 @@
       <c r="M1030" t="s">
         <v>13</v>
       </c>
-      <c r="N1030" t="s">
+      <c r="N1030" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1030">
@@ -44750,7 +44759,7 @@
       <c r="M1031" t="s">
         <v>13</v>
       </c>
-      <c r="N1031" t="s">
+      <c r="N1031" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1031">
@@ -44798,7 +44807,7 @@
       <c r="M1032" t="s">
         <v>14</v>
       </c>
-      <c r="N1032" t="s">
+      <c r="N1032" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1032">
@@ -44846,12 +44855,12 @@
       <c r="M1033" t="s">
         <v>13</v>
       </c>
-      <c r="N1033" t="s">
-        <v>13</v>
+      <c r="N1033" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1033">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3151.29</v>
       </c>
     </row>
     <row r="1034" spans="1:15" x14ac:dyDescent="0.3">
@@ -44894,12 +44903,12 @@
       <c r="M1034" t="s">
         <v>14</v>
       </c>
-      <c r="N1034" t="s">
-        <v>13</v>
+      <c r="N1034" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1034">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3133.72</v>
       </c>
     </row>
     <row r="1035" spans="1:15" x14ac:dyDescent="0.3">
@@ -44942,12 +44951,12 @@
       <c r="M1035" t="s">
         <v>13</v>
       </c>
-      <c r="N1035" t="s">
-        <v>13</v>
+      <c r="N1035" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1035">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3197.5</v>
       </c>
     </row>
     <row r="1036" spans="1:15" x14ac:dyDescent="0.3">
@@ -44990,12 +44999,12 @@
       <c r="M1036" t="s">
         <v>13</v>
       </c>
-      <c r="N1036" t="s">
-        <v>13</v>
+      <c r="N1036" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1036">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3201.16</v>
       </c>
     </row>
     <row r="1037" spans="1:15" x14ac:dyDescent="0.3">
@@ -45038,7 +45047,7 @@
       <c r="M1037" t="s">
         <v>13</v>
       </c>
-      <c r="N1037" t="s">
+      <c r="N1037" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1037">
@@ -45086,7 +45095,7 @@
       <c r="M1038" t="s">
         <v>14</v>
       </c>
-      <c r="N1038" t="s">
+      <c r="N1038" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1038">
@@ -45134,7 +45143,7 @@
       <c r="M1039" t="s">
         <v>14</v>
       </c>
-      <c r="N1039" t="s">
+      <c r="N1039" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1039">
@@ -45182,7 +45191,7 @@
       <c r="M1040" t="s">
         <v>14</v>
       </c>
-      <c r="N1040" t="s">
+      <c r="N1040" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1040">
@@ -45230,7 +45239,7 @@
       <c r="M1041" t="s">
         <v>15</v>
       </c>
-      <c r="N1041" t="s">
+      <c r="N1041" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1041">
@@ -45278,7 +45287,7 @@
       <c r="M1042" t="s">
         <v>13</v>
       </c>
-      <c r="N1042" t="s">
+      <c r="N1042" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1042">
@@ -45326,7 +45335,7 @@
       <c r="M1043" t="s">
         <v>13</v>
       </c>
-      <c r="N1043" t="s">
+      <c r="N1043" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1043">
@@ -45374,7 +45383,7 @@
       <c r="M1044" t="s">
         <v>15</v>
       </c>
-      <c r="N1044" t="s">
+      <c r="N1044" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1044">
@@ -45422,7 +45431,7 @@
       <c r="M1045" t="s">
         <v>13</v>
       </c>
-      <c r="N1045" t="s">
+      <c r="N1045" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1045">
@@ -45470,7 +45479,7 @@
       <c r="M1046" t="s">
         <v>13</v>
       </c>
-      <c r="N1046" t="s">
+      <c r="N1046" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1046">
@@ -45518,7 +45527,7 @@
       <c r="M1047" t="s">
         <v>13</v>
       </c>
-      <c r="N1047" t="s">
+      <c r="N1047" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1047">
@@ -45566,7 +45575,7 @@
       <c r="M1048" t="s">
         <v>14</v>
       </c>
-      <c r="N1048" t="s">
+      <c r="N1048" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1048">
@@ -45614,7 +45623,7 @@
       <c r="M1049" t="s">
         <v>13</v>
       </c>
-      <c r="N1049" t="s">
+      <c r="N1049" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1049">
@@ -45662,7 +45671,7 @@
       <c r="M1050" t="s">
         <v>13</v>
       </c>
-      <c r="N1050" t="s">
+      <c r="N1050" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1050">
@@ -45710,7 +45719,7 @@
       <c r="M1051" t="s">
         <v>15</v>
       </c>
-      <c r="N1051" t="s">
+      <c r="N1051" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1051">
@@ -45758,7 +45767,7 @@
       <c r="M1052" t="s">
         <v>13</v>
       </c>
-      <c r="N1052" t="s">
+      <c r="N1052" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1052">
@@ -45806,7 +45815,7 @@
       <c r="M1053" t="s">
         <v>13</v>
       </c>
-      <c r="N1053" t="s">
+      <c r="N1053" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1053">
@@ -45854,7 +45863,7 @@
       <c r="M1054" t="s">
         <v>13</v>
       </c>
-      <c r="N1054" t="s">
+      <c r="N1054" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1054">
@@ -45902,7 +45911,7 @@
       <c r="M1055" t="s">
         <v>13</v>
       </c>
-      <c r="N1055" t="s">
+      <c r="N1055" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1055">
@@ -45950,7 +45959,7 @@
       <c r="M1056" t="s">
         <v>13</v>
       </c>
-      <c r="N1056" t="s">
+      <c r="N1056" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1056">
@@ -45998,12 +46007,12 @@
       <c r="M1057" t="s">
         <v>13</v>
       </c>
-      <c r="N1057" t="s">
-        <v>13</v>
+      <c r="N1057" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1057">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3309.42</v>
       </c>
     </row>
     <row r="1058" spans="1:15" x14ac:dyDescent="0.3">
@@ -46046,12 +46055,12 @@
       <c r="M1058" t="s">
         <v>14</v>
       </c>
-      <c r="N1058" t="s">
-        <v>13</v>
+      <c r="N1058" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1058">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3300.92</v>
       </c>
     </row>
     <row r="1059" spans="1:15" x14ac:dyDescent="0.3">
@@ -46094,7 +46103,7 @@
       <c r="M1059" t="s">
         <v>14</v>
       </c>
-      <c r="N1059" t="s">
+      <c r="N1059" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1059">
@@ -46142,12 +46151,12 @@
       <c r="M1060" t="s">
         <v>14</v>
       </c>
-      <c r="N1060" t="s">
-        <v>13</v>
+      <c r="N1060" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1060">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3320</v>
       </c>
     </row>
     <row r="1061" spans="1:15" x14ac:dyDescent="0.3">
@@ -46190,7 +46199,7 @@
       <c r="M1061" t="s">
         <v>14</v>
       </c>
-      <c r="N1061" t="s">
+      <c r="N1061" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1061">
@@ -46238,7 +46247,7 @@
       <c r="M1062" t="s">
         <v>14</v>
       </c>
-      <c r="N1062" t="s">
+      <c r="N1062" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1062">
@@ -46286,7 +46295,7 @@
       <c r="M1063" t="s">
         <v>13</v>
       </c>
-      <c r="N1063" t="s">
+      <c r="N1063" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1063">
@@ -46334,7 +46343,7 @@
       <c r="M1064" t="s">
         <v>14</v>
       </c>
-      <c r="N1064" t="s">
+      <c r="N1064" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1064">
@@ -46382,7 +46391,7 @@
       <c r="M1065" t="s">
         <v>13</v>
       </c>
-      <c r="N1065" t="s">
+      <c r="N1065" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1065">
@@ -46430,7 +46439,7 @@
       <c r="M1066" t="s">
         <v>13</v>
       </c>
-      <c r="N1066" t="s">
+      <c r="N1066" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1066">
@@ -46478,7 +46487,7 @@
       <c r="M1067" t="s">
         <v>15</v>
       </c>
-      <c r="N1067" t="s">
+      <c r="N1067" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1067">
@@ -46526,7 +46535,7 @@
       <c r="M1068" t="s">
         <v>13</v>
       </c>
-      <c r="N1068" t="s">
+      <c r="N1068" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1068">
@@ -46574,7 +46583,7 @@
       <c r="M1069" t="s">
         <v>13</v>
       </c>
-      <c r="N1069" t="s">
+      <c r="N1069" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1069">
@@ -46622,7 +46631,7 @@
       <c r="M1070" t="s">
         <v>13</v>
       </c>
-      <c r="N1070" t="s">
+      <c r="N1070" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1070">
@@ -46670,12 +46679,12 @@
       <c r="M1071" t="s">
         <v>13</v>
       </c>
-      <c r="N1071" t="s">
-        <v>13</v>
+      <c r="N1071" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1071">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3566.72</v>
       </c>
     </row>
     <row r="1072" spans="1:15" x14ac:dyDescent="0.3">
@@ -46718,7 +46727,7 @@
       <c r="M1072" t="s">
         <v>13</v>
       </c>
-      <c r="N1072" t="s">
+      <c r="N1072" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1072">
@@ -46766,7 +46775,7 @@
       <c r="M1073" t="s">
         <v>13</v>
       </c>
-      <c r="N1073" t="s">
+      <c r="N1073" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1073">
@@ -46814,7 +46823,7 @@
       <c r="M1074" t="s">
         <v>15</v>
       </c>
-      <c r="N1074" t="s">
+      <c r="N1074" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1074">
@@ -46862,7 +46871,7 @@
       <c r="M1075" t="s">
         <v>13</v>
       </c>
-      <c r="N1075" t="s">
+      <c r="N1075" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1075">
@@ -46910,7 +46919,7 @@
       <c r="M1076" t="s">
         <v>13</v>
       </c>
-      <c r="N1076" t="s">
+      <c r="N1076" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1076">
@@ -46958,7 +46967,7 @@
       <c r="M1077" t="s">
         <v>13</v>
       </c>
-      <c r="N1077" t="s">
+      <c r="N1077" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1077">
@@ -47006,7 +47015,7 @@
       <c r="M1078" t="s">
         <v>13</v>
       </c>
-      <c r="N1078" t="s">
+      <c r="N1078" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1078">
@@ -47054,7 +47063,7 @@
       <c r="M1079" t="s">
         <v>13</v>
       </c>
-      <c r="N1079" t="s">
+      <c r="N1079" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1079">
@@ -47102,7 +47111,7 @@
       <c r="M1080" t="s">
         <v>13</v>
       </c>
-      <c r="N1080" t="s">
+      <c r="N1080" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1080">
@@ -47150,7 +47159,7 @@
       <c r="M1081" t="s">
         <v>13</v>
       </c>
-      <c r="N1081" t="s">
+      <c r="N1081" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1081">
@@ -47198,7 +47207,7 @@
       <c r="M1082" t="s">
         <v>13</v>
       </c>
-      <c r="N1082" t="s">
+      <c r="N1082" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1082">
@@ -47246,7 +47255,7 @@
       <c r="M1083" t="s">
         <v>13</v>
       </c>
-      <c r="N1083" t="s">
+      <c r="N1083" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1083">
@@ -47294,7 +47303,7 @@
       <c r="M1084" t="s">
         <v>14</v>
       </c>
-      <c r="N1084" t="s">
+      <c r="N1084" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1084">
@@ -47342,7 +47351,7 @@
       <c r="M1085" t="s">
         <v>14</v>
       </c>
-      <c r="N1085" t="s">
+      <c r="N1085" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1085">
@@ -47390,7 +47399,7 @@
       <c r="M1086" t="s">
         <v>14</v>
       </c>
-      <c r="N1086" t="s">
+      <c r="N1086" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1086">
@@ -47438,7 +47447,7 @@
       <c r="M1087" t="s">
         <v>13</v>
       </c>
-      <c r="N1087" t="s">
+      <c r="N1087" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1087">
@@ -47486,7 +47495,7 @@
       <c r="M1088" t="s">
         <v>13</v>
       </c>
-      <c r="N1088" t="s">
+      <c r="N1088" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1088">
@@ -47534,7 +47543,7 @@
       <c r="M1089" t="s">
         <v>13</v>
       </c>
-      <c r="N1089" t="s">
+      <c r="N1089" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1089">
@@ -47582,7 +47591,7 @@
       <c r="M1090" t="s">
         <v>13</v>
       </c>
-      <c r="N1090" t="s">
+      <c r="N1090" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1090">
@@ -47630,12 +47639,12 @@
       <c r="M1091" t="s">
         <v>13</v>
       </c>
-      <c r="N1091" t="s">
-        <v>13</v>
+      <c r="N1091" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1091">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3549.75</v>
       </c>
     </row>
     <row r="1092" spans="1:15" x14ac:dyDescent="0.3">
@@ -47678,12 +47687,12 @@
       <c r="M1092" t="s">
         <v>13</v>
       </c>
-      <c r="N1092" t="s">
-        <v>13</v>
+      <c r="N1092" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1092">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3557.45</v>
       </c>
     </row>
     <row r="1093" spans="1:15" x14ac:dyDescent="0.3">
@@ -47726,7 +47735,7 @@
       <c r="M1093" t="s">
         <v>14</v>
       </c>
-      <c r="N1093" t="s">
+      <c r="N1093" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1093">
@@ -47774,7 +47783,7 @@
       <c r="M1094" t="s">
         <v>13</v>
       </c>
-      <c r="N1094" t="s">
+      <c r="N1094" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1094">
@@ -47822,12 +47831,12 @@
       <c r="M1095" t="s">
         <v>13</v>
       </c>
-      <c r="N1095" t="s">
-        <v>13</v>
+      <c r="N1095" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1095">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3565.1</v>
       </c>
     </row>
     <row r="1096" spans="1:15" x14ac:dyDescent="0.3">
@@ -47870,7 +47879,7 @@
       <c r="M1096" t="s">
         <v>13</v>
       </c>
-      <c r="N1096" t="s">
+      <c r="N1096" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1096">
@@ -47918,7 +47927,7 @@
       <c r="M1097" t="s">
         <v>13</v>
       </c>
-      <c r="N1097" t="s">
+      <c r="N1097" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1097">
@@ -47966,7 +47975,7 @@
       <c r="M1098" t="s">
         <v>13</v>
       </c>
-      <c r="N1098" t="s">
+      <c r="N1098" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1098">
@@ -48014,7 +48023,7 @@
       <c r="M1099" t="s">
         <v>13</v>
       </c>
-      <c r="N1099" t="s">
+      <c r="N1099" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1099">
@@ -48062,7 +48071,7 @@
       <c r="M1100" t="s">
         <v>13</v>
       </c>
-      <c r="N1100" t="s">
+      <c r="N1100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1100">
@@ -48110,7 +48119,7 @@
       <c r="M1101" t="s">
         <v>15</v>
       </c>
-      <c r="N1101" t="s">
+      <c r="N1101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1101">
@@ -48158,7 +48167,7 @@
       <c r="M1102" t="s">
         <v>13</v>
       </c>
-      <c r="N1102" t="s">
+      <c r="N1102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1102">
@@ -48206,7 +48215,7 @@
       <c r="M1103" t="s">
         <v>13</v>
       </c>
-      <c r="N1103" t="s">
+      <c r="N1103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1103">
@@ -48254,7 +48263,7 @@
       <c r="M1104" t="s">
         <v>15</v>
       </c>
-      <c r="N1104" t="s">
+      <c r="N1104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1104">
@@ -48302,7 +48311,7 @@
       <c r="M1105" t="s">
         <v>15</v>
       </c>
-      <c r="N1105" t="s">
+      <c r="N1105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1105">
@@ -48350,7 +48359,7 @@
       <c r="M1106" t="s">
         <v>13</v>
       </c>
-      <c r="N1106" t="s">
+      <c r="N1106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1106">
@@ -48398,7 +48407,7 @@
       <c r="M1107" t="s">
         <v>13</v>
       </c>
-      <c r="N1107" t="s">
+      <c r="N1107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1107">
@@ -48446,7 +48455,7 @@
       <c r="M1108" t="s">
         <v>13</v>
       </c>
-      <c r="N1108" t="s">
+      <c r="N1108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1108">
@@ -48494,7 +48503,7 @@
       <c r="M1109" t="s">
         <v>13</v>
       </c>
-      <c r="N1109" t="s">
+      <c r="N1109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1109">
@@ -48542,7 +48551,7 @@
       <c r="M1110" t="s">
         <v>13</v>
       </c>
-      <c r="N1110" t="s">
+      <c r="N1110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1110">
@@ -48590,7 +48599,7 @@
       <c r="M1111" t="s">
         <v>13</v>
       </c>
-      <c r="N1111" t="s">
+      <c r="N1111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1111">
@@ -48638,7 +48647,7 @@
       <c r="M1112" t="s">
         <v>14</v>
       </c>
-      <c r="N1112" t="s">
+      <c r="N1112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1112">
@@ -48686,7 +48695,7 @@
       <c r="M1113" t="s">
         <v>13</v>
       </c>
-      <c r="N1113" t="s">
+      <c r="N1113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1113">
@@ -48734,7 +48743,7 @@
       <c r="M1114" t="s">
         <v>13</v>
       </c>
-      <c r="N1114" t="s">
+      <c r="N1114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1114">
@@ -48782,7 +48791,7 @@
       <c r="M1115" t="s">
         <v>13</v>
       </c>
-      <c r="N1115" t="s">
+      <c r="N1115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1115">
@@ -48830,7 +48839,7 @@
       <c r="M1116" t="s">
         <v>13</v>
       </c>
-      <c r="N1116" t="s">
+      <c r="N1116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1116">
@@ -48878,7 +48887,7 @@
       <c r="M1117" t="s">
         <v>13</v>
       </c>
-      <c r="N1117" t="s">
+      <c r="N1117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1117">
@@ -48926,7 +48935,7 @@
       <c r="M1118" t="s">
         <v>13</v>
       </c>
-      <c r="N1118" t="s">
+      <c r="N1118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1118">
@@ -48974,7 +48983,7 @@
       <c r="M1119" t="s">
         <v>13</v>
       </c>
-      <c r="N1119" t="s">
+      <c r="N1119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1119">
@@ -49022,7 +49031,7 @@
       <c r="M1120" t="s">
         <v>13</v>
       </c>
-      <c r="N1120" t="s">
+      <c r="N1120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1120">
@@ -49070,7 +49079,7 @@
       <c r="M1121" t="s">
         <v>13</v>
       </c>
-      <c r="N1121" t="s">
+      <c r="N1121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1121">
@@ -49118,7 +49127,7 @@
       <c r="M1122" t="s">
         <v>13</v>
       </c>
-      <c r="N1122" t="s">
+      <c r="N1122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1122">
@@ -49166,7 +49175,7 @@
       <c r="M1123" t="s">
         <v>13</v>
       </c>
-      <c r="N1123" t="s">
+      <c r="N1123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1123">
@@ -49214,7 +49223,7 @@
       <c r="M1124" t="s">
         <v>13</v>
       </c>
-      <c r="N1124" t="s">
+      <c r="N1124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1124">
@@ -49262,7 +49271,7 @@
       <c r="M1125" t="s">
         <v>13</v>
       </c>
-      <c r="N1125" t="s">
+      <c r="N1125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1125">
@@ -49310,7 +49319,7 @@
       <c r="M1126" t="s">
         <v>13</v>
       </c>
-      <c r="N1126" t="s">
+      <c r="N1126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1126">
@@ -49358,7 +49367,7 @@
       <c r="M1127" t="s">
         <v>13</v>
       </c>
-      <c r="N1127" t="s">
+      <c r="N1127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1127">
@@ -49406,7 +49415,7 @@
       <c r="M1128" t="s">
         <v>13</v>
       </c>
-      <c r="N1128" t="s">
+      <c r="N1128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1128">
@@ -49454,7 +49463,7 @@
       <c r="M1129" t="s">
         <v>13</v>
       </c>
-      <c r="N1129" t="s">
+      <c r="N1129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1129">
@@ -49502,12 +49511,12 @@
       <c r="M1130" t="s">
         <v>15</v>
       </c>
-      <c r="N1130" t="s">
-        <v>13</v>
+      <c r="N1130" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1130">
         <f t="shared" ref="O1130:O1193" si="5">IF(EXACT(N1130,"B"),-E1130, IF(EXACT(N1130,"S"),E1130,0))</f>
-        <v>0</v>
+        <v>3778.33</v>
       </c>
     </row>
     <row r="1131" spans="1:15" x14ac:dyDescent="0.3">
@@ -49550,12 +49559,12 @@
       <c r="M1131" t="s">
         <v>13</v>
       </c>
-      <c r="N1131" t="s">
-        <v>13</v>
+      <c r="N1131" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1131">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3765.25</v>
       </c>
     </row>
     <row r="1132" spans="1:15" x14ac:dyDescent="0.3">
@@ -49598,7 +49607,7 @@
       <c r="M1132" t="s">
         <v>13</v>
       </c>
-      <c r="N1132" t="s">
+      <c r="N1132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1132">
@@ -49646,7 +49655,7 @@
       <c r="M1133" t="s">
         <v>13</v>
       </c>
-      <c r="N1133" t="s">
+      <c r="N1133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1133">
@@ -49694,7 +49703,7 @@
       <c r="M1134" t="s">
         <v>13</v>
       </c>
-      <c r="N1134" t="s">
+      <c r="N1134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1134">
@@ -49742,7 +49751,7 @@
       <c r="M1135" t="s">
         <v>13</v>
       </c>
-      <c r="N1135" t="s">
+      <c r="N1135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1135">
@@ -49790,7 +49799,7 @@
       <c r="M1136" t="s">
         <v>13</v>
       </c>
-      <c r="N1136" t="s">
+      <c r="N1136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1136">
@@ -49838,7 +49847,7 @@
       <c r="M1137" t="s">
         <v>13</v>
       </c>
-      <c r="N1137" t="s">
+      <c r="N1137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1137">
@@ -49886,7 +49895,7 @@
       <c r="M1138" t="s">
         <v>13</v>
       </c>
-      <c r="N1138" t="s">
+      <c r="N1138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1138">
@@ -49934,7 +49943,7 @@
       <c r="M1139" t="s">
         <v>13</v>
       </c>
-      <c r="N1139" t="s">
+      <c r="N1139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1139">
@@ -49982,7 +49991,7 @@
       <c r="M1140" t="s">
         <v>13</v>
       </c>
-      <c r="N1140" t="s">
+      <c r="N1140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1140">
@@ -50030,7 +50039,7 @@
       <c r="M1141" t="s">
         <v>13</v>
       </c>
-      <c r="N1141" t="s">
+      <c r="N1141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1141">
@@ -50078,7 +50087,7 @@
       <c r="M1142" t="s">
         <v>13</v>
       </c>
-      <c r="N1142" t="s">
+      <c r="N1142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1142">
@@ -50126,12 +50135,12 @@
       <c r="M1143" t="s">
         <v>13</v>
       </c>
-      <c r="N1143" t="s">
-        <v>13</v>
+      <c r="N1143" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1143">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="1144" spans="1:15" x14ac:dyDescent="0.3">
@@ -50174,12 +50183,12 @@
       <c r="M1144" t="s">
         <v>13</v>
       </c>
-      <c r="N1144" t="s">
-        <v>13</v>
+      <c r="N1144" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1144">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="1145" spans="1:15" x14ac:dyDescent="0.3">
@@ -50222,12 +50231,12 @@
       <c r="M1145" t="s">
         <v>13</v>
       </c>
-      <c r="N1145" t="s">
-        <v>13</v>
+      <c r="N1145" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1145">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3701.98</v>
       </c>
     </row>
     <row r="1146" spans="1:15" x14ac:dyDescent="0.3">
@@ -50270,7 +50279,7 @@
       <c r="M1146" t="s">
         <v>13</v>
       </c>
-      <c r="N1146" t="s">
+      <c r="N1146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1146">
@@ -50318,7 +50327,7 @@
       <c r="M1147" t="s">
         <v>13</v>
       </c>
-      <c r="N1147" t="s">
+      <c r="N1147" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1147">
@@ -50366,7 +50375,7 @@
       <c r="M1148" t="s">
         <v>13</v>
       </c>
-      <c r="N1148" t="s">
+      <c r="N1148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1148">
@@ -50414,7 +50423,7 @@
       <c r="M1149" t="s">
         <v>13</v>
       </c>
-      <c r="N1149" t="s">
+      <c r="N1149" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1149">
@@ -50462,7 +50471,7 @@
       <c r="M1150" t="s">
         <v>13</v>
       </c>
-      <c r="N1150" t="s">
+      <c r="N1150" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1150">
@@ -50510,7 +50519,7 @@
       <c r="M1151" t="s">
         <v>13</v>
       </c>
-      <c r="N1151" t="s">
+      <c r="N1151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1151">
@@ -50558,7 +50567,7 @@
       <c r="M1152" t="s">
         <v>13</v>
       </c>
-      <c r="N1152" t="s">
+      <c r="N1152" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1152">
@@ -50606,7 +50615,7 @@
       <c r="M1153" t="s">
         <v>13</v>
       </c>
-      <c r="N1153" t="s">
+      <c r="N1153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1153">
@@ -50654,12 +50663,12 @@
       <c r="M1154" t="s">
         <v>13</v>
       </c>
-      <c r="N1154" t="s">
-        <v>13</v>
+      <c r="N1154" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1154">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3621.85</v>
       </c>
     </row>
     <row r="1155" spans="1:15" x14ac:dyDescent="0.3">
@@ -50702,7 +50711,7 @@
       <c r="M1155" t="s">
         <v>14</v>
       </c>
-      <c r="N1155" t="s">
+      <c r="N1155" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1155">
@@ -50750,7 +50759,7 @@
       <c r="M1156" t="s">
         <v>14</v>
       </c>
-      <c r="N1156" t="s">
+      <c r="N1156" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1156">
@@ -50798,7 +50807,7 @@
       <c r="M1157" t="s">
         <v>14</v>
       </c>
-      <c r="N1157" t="s">
+      <c r="N1157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1157">
@@ -50846,7 +50855,7 @@
       <c r="M1158" t="s">
         <v>14</v>
       </c>
-      <c r="N1158" t="s">
+      <c r="N1158" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1158">
@@ -50894,7 +50903,7 @@
       <c r="M1159" t="s">
         <v>13</v>
       </c>
-      <c r="N1159" t="s">
+      <c r="N1159" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1159">
@@ -50942,7 +50951,7 @@
       <c r="M1160" t="s">
         <v>13</v>
       </c>
-      <c r="N1160" t="s">
+      <c r="N1160" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1160">
@@ -50990,7 +50999,7 @@
       <c r="M1161" t="s">
         <v>13</v>
       </c>
-      <c r="N1161" t="s">
+      <c r="N1161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1161">
@@ -51038,7 +51047,7 @@
       <c r="M1162" t="s">
         <v>13</v>
       </c>
-      <c r="N1162" t="s">
+      <c r="N1162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1162">
@@ -51086,7 +51095,7 @@
       <c r="M1163" t="s">
         <v>13</v>
       </c>
-      <c r="N1163" t="s">
+      <c r="N1163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1163">
@@ -51134,7 +51143,7 @@
       <c r="M1164" t="s">
         <v>13</v>
       </c>
-      <c r="N1164" t="s">
+      <c r="N1164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1164">
@@ -51182,7 +51191,7 @@
       <c r="M1165" t="s">
         <v>13</v>
       </c>
-      <c r="N1165" t="s">
+      <c r="N1165" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1165">
@@ -51230,7 +51239,7 @@
       <c r="M1166" t="s">
         <v>13</v>
       </c>
-      <c r="N1166" t="s">
+      <c r="N1166" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1166">
@@ -51278,12 +51287,12 @@
       <c r="M1167" t="s">
         <v>13</v>
       </c>
-      <c r="N1167" t="s">
-        <v>13</v>
+      <c r="N1167" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1167">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3702.94</v>
       </c>
     </row>
     <row r="1168" spans="1:15" x14ac:dyDescent="0.3">
@@ -51326,7 +51335,7 @@
       <c r="M1168" t="s">
         <v>13</v>
       </c>
-      <c r="N1168" t="s">
+      <c r="N1168" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1168">
@@ -51374,7 +51383,7 @@
       <c r="M1169" t="s">
         <v>13</v>
       </c>
-      <c r="N1169" t="s">
+      <c r="N1169" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1169">
@@ -51422,7 +51431,7 @@
       <c r="M1170" t="s">
         <v>13</v>
       </c>
-      <c r="N1170" t="s">
+      <c r="N1170" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1170">
@@ -51470,7 +51479,7 @@
       <c r="M1171" t="s">
         <v>13</v>
       </c>
-      <c r="N1171" t="s">
+      <c r="N1171" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1171">
@@ -51518,7 +51527,7 @@
       <c r="M1172" t="s">
         <v>13</v>
       </c>
-      <c r="N1172" t="s">
+      <c r="N1172" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1172">
@@ -51566,7 +51575,7 @@
       <c r="M1173" t="s">
         <v>15</v>
       </c>
-      <c r="N1173" t="s">
+      <c r="N1173" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1173">
@@ -51614,7 +51623,7 @@
       <c r="M1174" t="s">
         <v>13</v>
       </c>
-      <c r="N1174" t="s">
+      <c r="N1174" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1174">
@@ -51662,7 +51671,7 @@
       <c r="M1175" t="s">
         <v>13</v>
       </c>
-      <c r="N1175" t="s">
+      <c r="N1175" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1175">
@@ -51710,7 +51719,7 @@
       <c r="M1176" t="s">
         <v>13</v>
       </c>
-      <c r="N1176" t="s">
+      <c r="N1176" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1176">
@@ -51758,7 +51767,7 @@
       <c r="M1177" t="s">
         <v>13</v>
       </c>
-      <c r="N1177" t="s">
+      <c r="N1177" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1177">
@@ -51806,12 +51815,12 @@
       <c r="M1178" t="s">
         <v>13</v>
       </c>
-      <c r="N1178" t="s">
-        <v>13</v>
+      <c r="N1178" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1178">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="1179" spans="1:15" x14ac:dyDescent="0.3">
@@ -51854,12 +51863,12 @@
       <c r="M1179" t="s">
         <v>13</v>
       </c>
-      <c r="N1179" t="s">
-        <v>13</v>
+      <c r="N1179" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1179">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3719.94</v>
       </c>
     </row>
     <row r="1180" spans="1:15" x14ac:dyDescent="0.3">
@@ -51902,7 +51911,7 @@
       <c r="M1180" t="s">
         <v>13</v>
       </c>
-      <c r="N1180" t="s">
+      <c r="N1180" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1180">
@@ -51950,12 +51959,12 @@
       <c r="M1181" t="s">
         <v>13</v>
       </c>
-      <c r="N1181" t="s">
-        <v>13</v>
+      <c r="N1181" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1181">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3713.85</v>
       </c>
     </row>
     <row r="1182" spans="1:15" x14ac:dyDescent="0.3">
@@ -51998,7 +52007,7 @@
       <c r="M1182" t="s">
         <v>13</v>
       </c>
-      <c r="N1182" t="s">
+      <c r="N1182" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1182">
@@ -52046,7 +52055,7 @@
       <c r="M1183" t="s">
         <v>14</v>
       </c>
-      <c r="N1183" t="s">
+      <c r="N1183" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1183">
@@ -52094,7 +52103,7 @@
       <c r="M1184" t="s">
         <v>13</v>
       </c>
-      <c r="N1184" t="s">
+      <c r="N1184" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1184">
@@ -52142,12 +52151,12 @@
       <c r="M1185" t="s">
         <v>14</v>
       </c>
-      <c r="N1185" t="s">
-        <v>13</v>
+      <c r="N1185" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1185">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="1186" spans="1:15" x14ac:dyDescent="0.3">
@@ -52190,7 +52199,7 @@
       <c r="M1186" t="s">
         <v>13</v>
       </c>
-      <c r="N1186" t="s">
+      <c r="N1186" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1186">
@@ -52238,7 +52247,7 @@
       <c r="M1187" t="s">
         <v>13</v>
       </c>
-      <c r="N1187" t="s">
+      <c r="N1187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1187">
@@ -52286,7 +52295,7 @@
       <c r="M1188" t="s">
         <v>14</v>
       </c>
-      <c r="N1188" t="s">
+      <c r="N1188" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1188">
@@ -52334,7 +52343,7 @@
       <c r="M1189" t="s">
         <v>13</v>
       </c>
-      <c r="N1189" t="s">
+      <c r="N1189" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1189">
@@ -52382,7 +52391,7 @@
       <c r="M1190" t="s">
         <v>13</v>
       </c>
-      <c r="N1190" t="s">
+      <c r="N1190" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1190">
@@ -52430,7 +52439,7 @@
       <c r="M1191" t="s">
         <v>14</v>
       </c>
-      <c r="N1191" t="s">
+      <c r="N1191" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1191">
@@ -52478,12 +52487,12 @@
       <c r="M1192" t="s">
         <v>13</v>
       </c>
-      <c r="N1192" t="s">
-        <v>13</v>
+      <c r="N1192" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1192">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3761.95</v>
       </c>
     </row>
     <row r="1193" spans="1:15" x14ac:dyDescent="0.3">
@@ -52526,12 +52535,12 @@
       <c r="M1193" t="s">
         <v>13</v>
       </c>
-      <c r="N1193" t="s">
-        <v>13</v>
+      <c r="N1193" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1193">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3779.95</v>
       </c>
     </row>
     <row r="1194" spans="1:15" x14ac:dyDescent="0.3">
@@ -52574,7 +52583,7 @@
       <c r="M1194" t="s">
         <v>14</v>
       </c>
-      <c r="N1194" t="s">
+      <c r="N1194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1194">
@@ -52622,7 +52631,7 @@
       <c r="M1195" t="s">
         <v>14</v>
       </c>
-      <c r="N1195" t="s">
+      <c r="N1195" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1195">
@@ -52670,7 +52679,7 @@
       <c r="M1196" t="s">
         <v>14</v>
       </c>
-      <c r="N1196" t="s">
+      <c r="N1196" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1196">
@@ -52718,7 +52727,7 @@
       <c r="M1197" t="s">
         <v>13</v>
       </c>
-      <c r="N1197" t="s">
+      <c r="N1197" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1197">
@@ -52766,7 +52775,7 @@
       <c r="M1198" t="s">
         <v>13</v>
       </c>
-      <c r="N1198" t="s">
+      <c r="N1198" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1198">
@@ -52814,7 +52823,7 @@
       <c r="M1199" t="s">
         <v>13</v>
       </c>
-      <c r="N1199" t="s">
+      <c r="N1199" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1199">
@@ -52862,7 +52871,7 @@
       <c r="M1200" t="s">
         <v>13</v>
       </c>
-      <c r="N1200" t="s">
+      <c r="N1200" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1200">
@@ -52910,7 +52919,7 @@
       <c r="M1201" t="s">
         <v>15</v>
       </c>
-      <c r="N1201" t="s">
+      <c r="N1201" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1201">
@@ -52958,12 +52967,12 @@
       <c r="M1202" t="s">
         <v>13</v>
       </c>
-      <c r="N1202" t="s">
-        <v>13</v>
+      <c r="N1202" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1202">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3881.24</v>
       </c>
     </row>
     <row r="1203" spans="1:15" x14ac:dyDescent="0.3">
@@ -53006,7 +53015,7 @@
       <c r="M1203" t="s">
         <v>13</v>
       </c>
-      <c r="N1203" t="s">
+      <c r="N1203" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1203">
@@ -53054,7 +53063,7 @@
       <c r="M1204" t="s">
         <v>13</v>
       </c>
-      <c r="N1204" t="s">
+      <c r="N1204" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1204">
@@ -53102,7 +53111,7 @@
       <c r="M1205" t="s">
         <v>14</v>
       </c>
-      <c r="N1205" t="s">
+      <c r="N1205" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1205">
@@ -53150,7 +53159,7 @@
       <c r="M1206" t="s">
         <v>14</v>
       </c>
-      <c r="N1206" t="s">
+      <c r="N1206" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1206">
@@ -53198,7 +53207,7 @@
       <c r="M1207" t="s">
         <v>14</v>
       </c>
-      <c r="N1207" t="s">
+      <c r="N1207" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1207">
@@ -53246,7 +53255,7 @@
       <c r="M1208" t="s">
         <v>14</v>
       </c>
-      <c r="N1208" t="s">
+      <c r="N1208" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1208">
@@ -53294,7 +53303,7 @@
       <c r="M1209" t="s">
         <v>14</v>
       </c>
-      <c r="N1209" t="s">
+      <c r="N1209" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1209">
@@ -53342,7 +53351,7 @@
       <c r="M1210" t="s">
         <v>15</v>
       </c>
-      <c r="N1210" t="s">
+      <c r="N1210" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1210">
@@ -53390,7 +53399,7 @@
       <c r="M1211" t="s">
         <v>13</v>
       </c>
-      <c r="N1211" t="s">
+      <c r="N1211" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1211">
@@ -53438,7 +53447,7 @@
       <c r="M1212" t="s">
         <v>13</v>
       </c>
-      <c r="N1212" t="s">
+      <c r="N1212" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1212">
@@ -53486,7 +53495,7 @@
       <c r="M1213" t="s">
         <v>13</v>
       </c>
-      <c r="N1213" t="s">
+      <c r="N1213" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1213">
@@ -53534,7 +53543,7 @@
       <c r="M1214" t="s">
         <v>13</v>
       </c>
-      <c r="N1214" t="s">
+      <c r="N1214" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1214">
@@ -53582,12 +53591,12 @@
       <c r="M1215" t="s">
         <v>13</v>
       </c>
-      <c r="N1215" t="s">
-        <v>13</v>
+      <c r="N1215" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1215">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4075.41</v>
       </c>
     </row>
     <row r="1216" spans="1:15" x14ac:dyDescent="0.3">
@@ -53630,7 +53639,7 @@
       <c r="M1216" t="s">
         <v>13</v>
       </c>
-      <c r="N1216" t="s">
+      <c r="N1216" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1216">
@@ -53678,7 +53687,7 @@
       <c r="M1217" t="s">
         <v>13</v>
       </c>
-      <c r="N1217" t="s">
+      <c r="N1217" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1217">
@@ -53726,7 +53735,7 @@
       <c r="M1218" t="s">
         <v>13</v>
       </c>
-      <c r="N1218" t="s">
+      <c r="N1218" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1218">
@@ -53774,7 +53783,7 @@
       <c r="M1219" t="s">
         <v>13</v>
       </c>
-      <c r="N1219" t="s">
+      <c r="N1219" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1219">
@@ -53822,7 +53831,7 @@
       <c r="M1220" t="s">
         <v>13</v>
       </c>
-      <c r="N1220" t="s">
+      <c r="N1220" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1220">
@@ -53870,12 +53879,12 @@
       <c r="M1221" t="s">
         <v>13</v>
       </c>
-      <c r="N1221" t="s">
-        <v>13</v>
+      <c r="N1221" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1221">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4060.41</v>
       </c>
     </row>
     <row r="1222" spans="1:15" x14ac:dyDescent="0.3">
@@ -53918,7 +53927,7 @@
       <c r="M1222" t="s">
         <v>13</v>
       </c>
-      <c r="N1222" t="s">
+      <c r="N1222" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1222">
@@ -53966,7 +53975,7 @@
       <c r="M1223" t="s">
         <v>15</v>
       </c>
-      <c r="N1223" t="s">
+      <c r="N1223" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1223">
@@ -54014,7 +54023,7 @@
       <c r="M1224" t="s">
         <v>13</v>
       </c>
-      <c r="N1224" t="s">
+      <c r="N1224" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1224">
@@ -54062,7 +54071,7 @@
       <c r="M1225" t="s">
         <v>13</v>
       </c>
-      <c r="N1225" t="s">
+      <c r="N1225" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1225">
@@ -54110,7 +54119,7 @@
       <c r="M1226" t="s">
         <v>14</v>
       </c>
-      <c r="N1226" t="s">
+      <c r="N1226" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1226">
@@ -54158,7 +54167,7 @@
       <c r="M1227" t="s">
         <v>14</v>
       </c>
-      <c r="N1227" t="s">
+      <c r="N1227" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1227">
@@ -54206,12 +54215,12 @@
       <c r="M1228" t="s">
         <v>13</v>
       </c>
-      <c r="N1228" t="s">
-        <v>13</v>
+      <c r="N1228" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1228">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4019.99</v>
       </c>
     </row>
     <row r="1229" spans="1:15" x14ac:dyDescent="0.3">
@@ -54254,7 +54263,7 @@
       <c r="M1229" t="s">
         <v>13</v>
       </c>
-      <c r="N1229" t="s">
+      <c r="N1229" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1229">
@@ -54302,7 +54311,7 @@
       <c r="M1230" t="s">
         <v>13</v>
       </c>
-      <c r="N1230" t="s">
+      <c r="N1230" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1230">
@@ -54350,7 +54359,7 @@
       <c r="M1231" t="s">
         <v>13</v>
       </c>
-      <c r="N1231" t="s">
+      <c r="N1231" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1231">
@@ -54398,7 +54407,7 @@
       <c r="M1232" t="s">
         <v>13</v>
       </c>
-      <c r="N1232" t="s">
+      <c r="N1232" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1232">
@@ -54446,7 +54455,7 @@
       <c r="M1233" t="s">
         <v>13</v>
       </c>
-      <c r="N1233" t="s">
+      <c r="N1233" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1233">
@@ -54494,7 +54503,7 @@
       <c r="M1234" t="s">
         <v>13</v>
       </c>
-      <c r="N1234" t="s">
+      <c r="N1234" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1234">
@@ -54542,7 +54551,7 @@
       <c r="M1235" t="s">
         <v>13</v>
       </c>
-      <c r="N1235" t="s">
+      <c r="N1235" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1235">
@@ -54590,7 +54599,7 @@
       <c r="M1236" t="s">
         <v>14</v>
       </c>
-      <c r="N1236" t="s">
+      <c r="N1236" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1236">
@@ -54638,7 +54647,7 @@
       <c r="M1237" t="s">
         <v>13</v>
       </c>
-      <c r="N1237" t="s">
+      <c r="N1237" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1237">
@@ -54686,12 +54695,12 @@
       <c r="M1238" t="s">
         <v>13</v>
       </c>
-      <c r="N1238" t="s">
-        <v>13</v>
+      <c r="N1238" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1238">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4060.64</v>
       </c>
     </row>
     <row r="1239" spans="1:15" x14ac:dyDescent="0.3">
@@ -54734,12 +54743,12 @@
       <c r="M1239" t="s">
         <v>14</v>
       </c>
-      <c r="N1239" t="s">
-        <v>13</v>
+      <c r="N1239" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1239">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4058.76</v>
       </c>
     </row>
     <row r="1240" spans="1:15" x14ac:dyDescent="0.3">
@@ -54782,7 +54791,7 @@
       <c r="M1240" t="s">
         <v>14</v>
       </c>
-      <c r="N1240" t="s">
+      <c r="N1240" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1240">
@@ -54830,7 +54839,7 @@
       <c r="M1241" t="s">
         <v>14</v>
       </c>
-      <c r="N1241" t="s">
+      <c r="N1241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1241">
@@ -54878,7 +54887,7 @@
       <c r="M1242" t="s">
         <v>14</v>
       </c>
-      <c r="N1242" t="s">
+      <c r="N1242" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1242">
@@ -54926,7 +54935,7 @@
       <c r="M1243" t="s">
         <v>14</v>
       </c>
-      <c r="N1243" t="s">
+      <c r="N1243" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1243">
@@ -54974,7 +54983,7 @@
       <c r="M1244" t="s">
         <v>14</v>
       </c>
-      <c r="N1244" t="s">
+      <c r="N1244" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1244">
@@ -55022,7 +55031,7 @@
       <c r="M1245" t="s">
         <v>13</v>
       </c>
-      <c r="N1245" t="s">
+      <c r="N1245" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1245">
@@ -55070,7 +55079,7 @@
       <c r="M1246" t="s">
         <v>14</v>
       </c>
-      <c r="N1246" t="s">
+      <c r="N1246" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1246">
@@ -55118,7 +55127,7 @@
       <c r="M1247" t="s">
         <v>14</v>
       </c>
-      <c r="N1247" t="s">
+      <c r="N1247" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1247">
@@ -55166,7 +55175,7 @@
       <c r="M1248" t="s">
         <v>14</v>
       </c>
-      <c r="N1248" t="s">
+      <c r="N1248" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1248">
@@ -55214,7 +55223,7 @@
       <c r="M1249" t="s">
         <v>14</v>
       </c>
-      <c r="N1249" t="s">
+      <c r="N1249" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1249">
@@ -55262,7 +55271,7 @@
       <c r="M1250" t="s">
         <v>14</v>
       </c>
-      <c r="N1250" t="s">
+      <c r="N1250" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1250">
@@ -55310,7 +55319,7 @@
       <c r="M1251" t="s">
         <v>13</v>
       </c>
-      <c r="N1251" t="s">
+      <c r="N1251" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1251">
@@ -55358,7 +55367,7 @@
       <c r="M1252" t="s">
         <v>13</v>
       </c>
-      <c r="N1252" t="s">
+      <c r="N1252" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1252">
@@ -55406,7 +55415,7 @@
       <c r="M1253" t="s">
         <v>13</v>
       </c>
-      <c r="N1253" t="s">
+      <c r="N1253" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1253">
@@ -55454,7 +55463,7 @@
       <c r="M1254" t="s">
         <v>13</v>
       </c>
-      <c r="N1254" t="s">
+      <c r="N1254" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1254">
@@ -55502,7 +55511,7 @@
       <c r="M1255" t="s">
         <v>13</v>
       </c>
-      <c r="N1255" t="s">
+      <c r="N1255" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1255">
@@ -55550,7 +55559,7 @@
       <c r="M1256" t="s">
         <v>13</v>
       </c>
-      <c r="N1256" t="s">
+      <c r="N1256" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1256">
@@ -55598,7 +55607,7 @@
       <c r="M1257" t="s">
         <v>13</v>
       </c>
-      <c r="N1257" t="s">
+      <c r="N1257" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1257">
@@ -55646,7 +55655,7 @@
       <c r="M1258" t="s">
         <v>15</v>
       </c>
-      <c r="N1258" t="s">
+      <c r="N1258" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1258">
@@ -55694,7 +55703,7 @@
       <c r="M1259" t="s">
         <v>14</v>
       </c>
-      <c r="N1259" t="s">
+      <c r="N1259" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1259">
@@ -55742,7 +55751,7 @@
       <c r="M1260" t="s">
         <v>13</v>
       </c>
-      <c r="N1260" t="s">
+      <c r="N1260" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1260">
@@ -55790,7 +55799,7 @@
       <c r="M1261" t="s">
         <v>13</v>
       </c>
-      <c r="N1261" t="s">
+      <c r="N1261" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1261">
@@ -55838,12 +55847,12 @@
       <c r="M1262" t="s">
         <v>13</v>
       </c>
-      <c r="N1262" t="s">
-        <v>13</v>
+      <c r="N1262" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1262">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4716.45</v>
       </c>
     </row>
     <row r="1263" spans="1:15" x14ac:dyDescent="0.3">
@@ -55886,12 +55895,12 @@
       <c r="M1263" t="s">
         <v>13</v>
       </c>
-      <c r="N1263" t="s">
-        <v>13</v>
+      <c r="N1263" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1263">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4767.84</v>
       </c>
     </row>
     <row r="1264" spans="1:15" x14ac:dyDescent="0.3">
@@ -55934,7 +55943,7 @@
       <c r="M1264" t="s">
         <v>13</v>
       </c>
-      <c r="N1264" t="s">
+      <c r="N1264" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1264">
@@ -55982,7 +55991,7 @@
       <c r="M1265" t="s">
         <v>13</v>
       </c>
-      <c r="N1265" t="s">
+      <c r="N1265" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1265">
@@ -56030,7 +56039,7 @@
       <c r="M1266" t="s">
         <v>13</v>
       </c>
-      <c r="N1266" t="s">
+      <c r="N1266" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1266">
@@ -56078,7 +56087,7 @@
       <c r="M1267" t="s">
         <v>13</v>
       </c>
-      <c r="N1267" t="s">
+      <c r="N1267" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1267">
@@ -56126,7 +56135,7 @@
       <c r="M1268" t="s">
         <v>15</v>
       </c>
-      <c r="N1268" t="s">
+      <c r="N1268" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1268">
@@ -56174,12 +56183,12 @@
       <c r="M1269" t="s">
         <v>13</v>
       </c>
-      <c r="N1269" t="s">
-        <v>13</v>
+      <c r="N1269" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1269">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1270" spans="1:15" x14ac:dyDescent="0.3">
@@ -56222,7 +56231,7 @@
       <c r="M1270" t="s">
         <v>13</v>
       </c>
-      <c r="N1270" t="s">
+      <c r="N1270" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1270">
@@ -56270,7 +56279,7 @@
       <c r="M1271" t="s">
         <v>13</v>
       </c>
-      <c r="N1271" t="s">
+      <c r="N1271" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1271">
@@ -56318,12 +56327,12 @@
       <c r="M1272" t="s">
         <v>13</v>
       </c>
-      <c r="N1272" t="s">
-        <v>13</v>
+      <c r="N1272" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1272">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="1273" spans="1:15" x14ac:dyDescent="0.3">
@@ -56366,7 +56375,7 @@
       <c r="M1273" t="s">
         <v>13</v>
       </c>
-      <c r="N1273" t="s">
+      <c r="N1273" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1273">
@@ -56414,7 +56423,7 @@
       <c r="M1274" t="s">
         <v>13</v>
       </c>
-      <c r="N1274" t="s">
+      <c r="N1274" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1274">
@@ -56462,12 +56471,12 @@
       <c r="M1275" t="s">
         <v>15</v>
       </c>
-      <c r="N1275" t="s">
-        <v>13</v>
+      <c r="N1275" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1275">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1276" spans="1:15" x14ac:dyDescent="0.3">
@@ -56510,7 +56519,7 @@
       <c r="M1276" t="s">
         <v>13</v>
       </c>
-      <c r="N1276" t="s">
+      <c r="N1276" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1276">
@@ -56558,7 +56567,7 @@
       <c r="M1277" t="s">
         <v>13</v>
       </c>
-      <c r="N1277" t="s">
+      <c r="N1277" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1277">
@@ -56606,7 +56615,7 @@
       <c r="M1278" t="s">
         <v>13</v>
       </c>
-      <c r="N1278" t="s">
+      <c r="N1278" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1278">
@@ -56654,7 +56663,7 @@
       <c r="M1279" t="s">
         <v>14</v>
       </c>
-      <c r="N1279" t="s">
+      <c r="N1279" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1279">
@@ -56702,7 +56711,7 @@
       <c r="M1280" t="s">
         <v>13</v>
       </c>
-      <c r="N1280" t="s">
+      <c r="N1280" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1280">
@@ -56750,7 +56759,7 @@
       <c r="M1281" t="s">
         <v>13</v>
       </c>
-      <c r="N1281" t="s">
+      <c r="N1281" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1281">
@@ -56798,7 +56807,7 @@
       <c r="M1282" t="s">
         <v>14</v>
       </c>
-      <c r="N1282" t="s">
+      <c r="N1282" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1282">
@@ -56846,7 +56855,7 @@
       <c r="M1283" t="s">
         <v>14</v>
       </c>
-      <c r="N1283" t="s">
+      <c r="N1283" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1283">
@@ -56894,7 +56903,7 @@
       <c r="M1284" t="s">
         <v>14</v>
       </c>
-      <c r="N1284" t="s">
+      <c r="N1284" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1284">
@@ -56942,7 +56951,7 @@
       <c r="M1285" t="s">
         <v>13</v>
       </c>
-      <c r="N1285" t="s">
+      <c r="N1285" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1285">
@@ -56990,12 +56999,12 @@
       <c r="M1286" t="s">
         <v>13</v>
       </c>
-      <c r="N1286" t="s">
-        <v>13</v>
+      <c r="N1286" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1286">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4769.99</v>
       </c>
     </row>
     <row r="1287" spans="1:15" x14ac:dyDescent="0.3">
@@ -57038,7 +57047,7 @@
       <c r="M1287" t="s">
         <v>13</v>
       </c>
-      <c r="N1287" t="s">
+      <c r="N1287" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1287">
@@ -57086,7 +57095,7 @@
       <c r="M1288" t="s">
         <v>13</v>
       </c>
-      <c r="N1288" t="s">
+      <c r="N1288" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1288">
@@ -57134,7 +57143,7 @@
       <c r="M1289" t="s">
         <v>13</v>
       </c>
-      <c r="N1289" t="s">
+      <c r="N1289" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1289">
@@ -57182,7 +57191,7 @@
       <c r="M1290" t="s">
         <v>13</v>
       </c>
-      <c r="N1290" t="s">
+      <c r="N1290" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1290">
@@ -57230,7 +57239,7 @@
       <c r="M1291" t="s">
         <v>13</v>
       </c>
-      <c r="N1291" t="s">
+      <c r="N1291" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1291">
@@ -57278,7 +57287,7 @@
       <c r="M1292" t="s">
         <v>13</v>
       </c>
-      <c r="N1292" t="s">
+      <c r="N1292" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1292">
@@ -57326,7 +57335,7 @@
       <c r="M1293" t="s">
         <v>13</v>
       </c>
-      <c r="N1293" t="s">
+      <c r="N1293" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1293">
@@ -57374,7 +57383,7 @@
       <c r="M1294" t="s">
         <v>13</v>
       </c>
-      <c r="N1294" t="s">
+      <c r="N1294" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1294">
@@ -57422,7 +57431,7 @@
       <c r="M1295" t="s">
         <v>13</v>
       </c>
-      <c r="N1295" t="s">
+      <c r="N1295" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1295">
@@ -57470,7 +57479,7 @@
       <c r="M1296" t="s">
         <v>13</v>
       </c>
-      <c r="N1296" t="s">
+      <c r="N1296" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1296">
@@ -57518,7 +57527,7 @@
       <c r="M1297" t="s">
         <v>15</v>
       </c>
-      <c r="N1297" t="s">
+      <c r="N1297" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1297">
@@ -57566,7 +57575,7 @@
       <c r="M1298" t="s">
         <v>13</v>
       </c>
-      <c r="N1298" t="s">
+      <c r="N1298" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1298">
@@ -57614,12 +57623,12 @@
       <c r="M1299" t="s">
         <v>13</v>
       </c>
-      <c r="N1299" t="s">
-        <v>13</v>
+      <c r="N1299" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1299">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4775.42</v>
       </c>
     </row>
     <row r="1300" spans="1:15" x14ac:dyDescent="0.3">
@@ -57662,12 +57671,12 @@
       <c r="M1300" t="s">
         <v>13</v>
       </c>
-      <c r="N1300" t="s">
-        <v>13</v>
+      <c r="N1300" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1300">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4799.5600000000004</v>
       </c>
     </row>
     <row r="1301" spans="1:15" x14ac:dyDescent="0.3">
@@ -57710,7 +57719,7 @@
       <c r="M1301" t="s">
         <v>13</v>
       </c>
-      <c r="N1301" t="s">
+      <c r="N1301" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1301">
@@ -57758,7 +57767,7 @@
       <c r="M1302" t="s">
         <v>13</v>
       </c>
-      <c r="N1302" t="s">
+      <c r="N1302" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1302">
@@ -57806,7 +57815,7 @@
       <c r="M1303" t="s">
         <v>13</v>
       </c>
-      <c r="N1303" t="s">
+      <c r="N1303" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1303">
@@ -57854,7 +57863,7 @@
       <c r="M1304" t="s">
         <v>13</v>
       </c>
-      <c r="N1304" t="s">
+      <c r="N1304" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1304">
@@ -57902,7 +57911,7 @@
       <c r="M1305" t="s">
         <v>13</v>
       </c>
-      <c r="N1305" t="s">
+      <c r="N1305" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1305">
@@ -57950,7 +57959,7 @@
       <c r="M1306" t="s">
         <v>13</v>
       </c>
-      <c r="N1306" t="s">
+      <c r="N1306" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1306">
@@ -57998,7 +58007,7 @@
       <c r="M1307" t="s">
         <v>13</v>
       </c>
-      <c r="N1307" t="s">
+      <c r="N1307" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1307">
@@ -58046,7 +58055,7 @@
       <c r="M1308" t="s">
         <v>13</v>
       </c>
-      <c r="N1308" t="s">
+      <c r="N1308" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1308">
@@ -58094,7 +58103,7 @@
       <c r="M1309" t="s">
         <v>13</v>
       </c>
-      <c r="N1309" t="s">
+      <c r="N1309" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1309">
@@ -58142,7 +58151,7 @@
       <c r="M1310" t="s">
         <v>13</v>
       </c>
-      <c r="N1310" t="s">
+      <c r="N1310" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1310">
@@ -58190,7 +58199,7 @@
       <c r="M1311" t="s">
         <v>13</v>
       </c>
-      <c r="N1311" t="s">
+      <c r="N1311" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1311">
@@ -58238,7 +58247,7 @@
       <c r="M1312" t="s">
         <v>13</v>
       </c>
-      <c r="N1312" t="s">
+      <c r="N1312" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1312">
@@ -58286,7 +58295,7 @@
       <c r="M1313" t="s">
         <v>14</v>
       </c>
-      <c r="N1313" t="s">
+      <c r="N1313" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1313">
@@ -58334,7 +58343,7 @@
       <c r="M1314" t="s">
         <v>13</v>
       </c>
-      <c r="N1314" t="s">
+      <c r="N1314" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1314">
@@ -58382,7 +58391,7 @@
       <c r="M1315" t="s">
         <v>14</v>
       </c>
-      <c r="N1315" t="s">
+      <c r="N1315" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1315">
@@ -58430,7 +58439,7 @@
       <c r="M1316" t="s">
         <v>14</v>
       </c>
-      <c r="N1316" t="s">
+      <c r="N1316" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1316">
@@ -58478,7 +58487,7 @@
       <c r="M1317" t="s">
         <v>14</v>
       </c>
-      <c r="N1317" t="s">
+      <c r="N1317" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1317">
@@ -58526,7 +58535,7 @@
       <c r="M1318" t="s">
         <v>13</v>
       </c>
-      <c r="N1318" t="s">
+      <c r="N1318" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1318">
@@ -58574,7 +58583,7 @@
       <c r="M1319" t="s">
         <v>13</v>
       </c>
-      <c r="N1319" t="s">
+      <c r="N1319" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1319">
@@ -58622,7 +58631,7 @@
       <c r="M1320" t="s">
         <v>13</v>
       </c>
-      <c r="N1320" t="s">
+      <c r="N1320" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1320">
@@ -58670,7 +58679,7 @@
       <c r="M1321" t="s">
         <v>13</v>
       </c>
-      <c r="N1321" t="s">
+      <c r="N1321" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1321">
@@ -58718,7 +58727,7 @@
       <c r="M1322" t="s">
         <v>14</v>
       </c>
-      <c r="N1322" t="s">
+      <c r="N1322" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1322">
@@ -58766,12 +58775,12 @@
       <c r="M1323" t="s">
         <v>13</v>
       </c>
-      <c r="N1323" t="s">
-        <v>13</v>
+      <c r="N1323" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1323">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4764.62</v>
       </c>
     </row>
     <row r="1324" spans="1:15" x14ac:dyDescent="0.3">
@@ -58814,7 +58823,7 @@
       <c r="M1324" t="s">
         <v>15</v>
       </c>
-      <c r="N1324" t="s">
+      <c r="N1324" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1324">
@@ -58862,7 +58871,7 @@
       <c r="M1325" t="s">
         <v>14</v>
       </c>
-      <c r="N1325" t="s">
+      <c r="N1325" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1325">
@@ -58910,7 +58919,7 @@
       <c r="M1326" t="s">
         <v>13</v>
       </c>
-      <c r="N1326" t="s">
+      <c r="N1326" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1326">
@@ -58958,7 +58967,7 @@
       <c r="M1327" t="s">
         <v>13</v>
       </c>
-      <c r="N1327" t="s">
+      <c r="N1327" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1327">
@@ -59006,7 +59015,7 @@
       <c r="M1328" t="s">
         <v>13</v>
       </c>
-      <c r="N1328" t="s">
+      <c r="N1328" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1328">
@@ -59054,7 +59063,7 @@
       <c r="M1329" t="s">
         <v>14</v>
       </c>
-      <c r="N1329" t="s">
+      <c r="N1329" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1329">
@@ -59102,7 +59111,7 @@
       <c r="M1330" t="s">
         <v>13</v>
       </c>
-      <c r="N1330" t="s">
+      <c r="N1330" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1330">
@@ -59150,7 +59159,7 @@
       <c r="M1331" t="s">
         <v>13</v>
       </c>
-      <c r="N1331" t="s">
+      <c r="N1331" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1331">
@@ -59198,7 +59207,7 @@
       <c r="M1332" t="s">
         <v>13</v>
       </c>
-      <c r="N1332" t="s">
+      <c r="N1332" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1332">
@@ -59246,7 +59255,7 @@
       <c r="M1333" t="s">
         <v>15</v>
       </c>
-      <c r="N1333" t="s">
+      <c r="N1333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1333">
@@ -59294,12 +59303,12 @@
       <c r="M1334" t="s">
         <v>13</v>
       </c>
-      <c r="N1334" t="s">
-        <v>13</v>
+      <c r="N1334" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1334">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4802.84</v>
       </c>
     </row>
     <row r="1335" spans="1:15" x14ac:dyDescent="0.3">
@@ -59342,12 +59351,12 @@
       <c r="M1335" t="s">
         <v>13</v>
       </c>
-      <c r="N1335" t="s">
-        <v>13</v>
+      <c r="N1335" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1335">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4815.13</v>
       </c>
     </row>
     <row r="1336" spans="1:15" x14ac:dyDescent="0.3">
@@ -59390,12 +59399,12 @@
       <c r="M1336" t="s">
         <v>13</v>
       </c>
-      <c r="N1336" t="s">
-        <v>13</v>
+      <c r="N1336" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1336">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4814.93</v>
       </c>
     </row>
     <row r="1337" spans="1:15" x14ac:dyDescent="0.3">
@@ -59438,12 +59447,12 @@
       <c r="M1337" t="s">
         <v>14</v>
       </c>
-      <c r="N1337" t="s">
-        <v>13</v>
+      <c r="N1337" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1337">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4784.37</v>
       </c>
     </row>
     <row r="1338" spans="1:15" x14ac:dyDescent="0.3">
@@ -59486,7 +59495,7 @@
       <c r="M1338" t="s">
         <v>13</v>
       </c>
-      <c r="N1338" t="s">
+      <c r="N1338" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1338">
@@ -59534,12 +59543,12 @@
       <c r="M1339" t="s">
         <v>13</v>
       </c>
-      <c r="N1339" t="s">
-        <v>13</v>
+      <c r="N1339" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1339">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4786.21</v>
       </c>
     </row>
     <row r="1340" spans="1:15" x14ac:dyDescent="0.3">
@@ -59582,7 +59591,7 @@
       <c r="M1340" t="s">
         <v>14</v>
       </c>
-      <c r="N1340" t="s">
+      <c r="N1340" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1340">
@@ -59630,7 +59639,7 @@
       <c r="M1341" t="s">
         <v>14</v>
       </c>
-      <c r="N1341" t="s">
+      <c r="N1341" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1341">
@@ -59678,7 +59687,7 @@
       <c r="M1342" t="s">
         <v>14</v>
       </c>
-      <c r="N1342" t="s">
+      <c r="N1342" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1342">
@@ -59726,7 +59735,7 @@
       <c r="M1343" t="s">
         <v>13</v>
       </c>
-      <c r="N1343" t="s">
+      <c r="N1343" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1343">
@@ -59774,7 +59783,7 @@
       <c r="M1344" t="s">
         <v>15</v>
       </c>
-      <c r="N1344" t="s">
+      <c r="N1344" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1344">
@@ -59822,7 +59831,7 @@
       <c r="M1345" t="s">
         <v>13</v>
       </c>
-      <c r="N1345" t="s">
+      <c r="N1345" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1345">
@@ -59870,12 +59879,12 @@
       <c r="M1346" t="s">
         <v>13</v>
       </c>
-      <c r="N1346" t="s">
-        <v>13</v>
+      <c r="N1346" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1346">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1347" spans="1:15" x14ac:dyDescent="0.3">
@@ -59918,7 +59927,7 @@
       <c r="M1347" t="s">
         <v>13</v>
       </c>
-      <c r="N1347" t="s">
+      <c r="N1347" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1347">
@@ -59966,7 +59975,7 @@
       <c r="M1348" t="s">
         <v>15</v>
       </c>
-      <c r="N1348" t="s">
+      <c r="N1348" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1348">
@@ -60014,7 +60023,7 @@
       <c r="M1349" t="s">
         <v>13</v>
       </c>
-      <c r="N1349" t="s">
+      <c r="N1349" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1349">
@@ -60062,7 +60071,7 @@
       <c r="M1350" t="s">
         <v>13</v>
       </c>
-      <c r="N1350" t="s">
+      <c r="N1350" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1350">
@@ -60110,7 +60119,7 @@
       <c r="M1351" t="s">
         <v>13</v>
       </c>
-      <c r="N1351" t="s">
+      <c r="N1351" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1351">
@@ -60158,7 +60167,7 @@
       <c r="M1352" t="s">
         <v>13</v>
       </c>
-      <c r="N1352" t="s">
+      <c r="N1352" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1352">
@@ -60206,7 +60215,7 @@
       <c r="M1353" t="s">
         <v>15</v>
       </c>
-      <c r="N1353" t="s">
+      <c r="N1353" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1353">
@@ -60254,7 +60263,7 @@
       <c r="M1354" t="s">
         <v>13</v>
       </c>
-      <c r="N1354" t="s">
+      <c r="N1354" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1354">
@@ -60302,7 +60311,7 @@
       <c r="M1355" t="s">
         <v>13</v>
       </c>
-      <c r="N1355" t="s">
+      <c r="N1355" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1355">
@@ -60350,7 +60359,7 @@
       <c r="M1356" t="s">
         <v>13</v>
       </c>
-      <c r="N1356" t="s">
+      <c r="N1356" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1356">
@@ -60398,7 +60407,7 @@
       <c r="M1357" t="s">
         <v>13</v>
       </c>
-      <c r="N1357" t="s">
+      <c r="N1357" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1357">
@@ -60446,12 +60455,12 @@
       <c r="M1358" t="s">
         <v>13</v>
       </c>
-      <c r="N1358" t="s">
-        <v>13</v>
+      <c r="N1358" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1358">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5129.32</v>
       </c>
     </row>
     <row r="1359" spans="1:15" x14ac:dyDescent="0.3">
@@ -60494,12 +60503,12 @@
       <c r="M1359" t="s">
         <v>13</v>
       </c>
-      <c r="N1359" t="s">
-        <v>13</v>
+      <c r="N1359" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1359">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5082.49</v>
       </c>
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.3">
@@ -60542,7 +60551,7 @@
       <c r="M1360" t="s">
         <v>13</v>
       </c>
-      <c r="N1360" t="s">
+      <c r="N1360" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1360">
@@ -60590,7 +60599,7 @@
       <c r="M1361" t="s">
         <v>13</v>
       </c>
-      <c r="N1361" t="s">
+      <c r="N1361" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1361">
@@ -60638,7 +60647,7 @@
       <c r="M1362" t="s">
         <v>13</v>
       </c>
-      <c r="N1362" t="s">
+      <c r="N1362" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1362">
@@ -60686,7 +60695,7 @@
       <c r="M1363" t="s">
         <v>13</v>
       </c>
-      <c r="N1363" t="s">
+      <c r="N1363" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1363">
@@ -60734,7 +60743,7 @@
       <c r="M1364" t="s">
         <v>13</v>
       </c>
-      <c r="N1364" t="s">
+      <c r="N1364" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1364">
@@ -60782,7 +60791,7 @@
       <c r="M1365" t="s">
         <v>13</v>
       </c>
-      <c r="N1365" t="s">
+      <c r="N1365" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1365">
@@ -60830,7 +60839,7 @@
       <c r="M1366" t="s">
         <v>13</v>
       </c>
-      <c r="N1366" t="s">
+      <c r="N1366" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1366">
@@ -60878,7 +60887,7 @@
       <c r="M1367" t="s">
         <v>13</v>
       </c>
-      <c r="N1367" t="s">
+      <c r="N1367" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1367">
@@ -60926,7 +60935,7 @@
       <c r="M1368" t="s">
         <v>13</v>
       </c>
-      <c r="N1368" t="s">
+      <c r="N1368" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1368">
@@ -60974,7 +60983,7 @@
       <c r="M1369" t="s">
         <v>13</v>
       </c>
-      <c r="N1369" t="s">
+      <c r="N1369" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1369">
@@ -61022,12 +61031,12 @@
       <c r="M1370" t="s">
         <v>13</v>
       </c>
-      <c r="N1370" t="s">
-        <v>13</v>
+      <c r="N1370" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1370">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5089.95</v>
       </c>
     </row>
     <row r="1371" spans="1:15" x14ac:dyDescent="0.3">
@@ -61070,7 +61079,7 @@
       <c r="M1371" t="s">
         <v>13</v>
       </c>
-      <c r="N1371" t="s">
+      <c r="N1371" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O1371">
@@ -61118,7 +61127,7 @@
       <c r="M1372" t="s">
         <v>13</v>
       </c>
-      <c r="N1372" t="s">
+      <c r="N1372" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O1372">
@@ -61166,7 +61175,7 @@
       <c r="M1373" t="s">
         <v>13</v>
       </c>
-      <c r="N1373" t="s">
+      <c r="N1373" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1373">
@@ -61214,7 +61223,7 @@
       <c r="M1374" t="s">
         <v>13</v>
       </c>
-      <c r="N1374" t="s">
+      <c r="N1374" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1374">
@@ -61262,7 +61271,7 @@
       <c r="M1375" t="s">
         <v>13</v>
       </c>
-      <c r="N1375" t="s">
+      <c r="N1375" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1375">
@@ -61310,7 +61319,7 @@
       <c r="M1376" t="s">
         <v>13</v>
       </c>
-      <c r="N1376" t="s">
+      <c r="N1376" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1376">
@@ -61358,7 +61367,7 @@
       <c r="M1377" t="s">
         <v>13</v>
       </c>
-      <c r="N1377" t="s">
+      <c r="N1377" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1377">
@@ -61406,7 +61415,7 @@
       <c r="M1378" t="s">
         <v>13</v>
       </c>
-      <c r="N1378" t="s">
+      <c r="N1378" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1378">
@@ -61454,7 +61463,7 @@
       <c r="M1379" t="s">
         <v>13</v>
       </c>
-      <c r="N1379" t="s">
+      <c r="N1379" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1379">
@@ -61502,7 +61511,7 @@
       <c r="M1380" t="s">
         <v>13</v>
       </c>
-      <c r="N1380" t="s">
+      <c r="N1380" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1380">
@@ -61550,7 +61559,7 @@
       <c r="M1381" t="s">
         <v>13</v>
       </c>
-      <c r="N1381" t="s">
+      <c r="N1381" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1381">
@@ -61598,7 +61607,7 @@
       <c r="M1382" t="s">
         <v>13</v>
       </c>
-      <c r="N1382" t="s">
+      <c r="N1382" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1382">
@@ -61646,7 +61655,7 @@
       <c r="M1383" t="s">
         <v>13</v>
       </c>
-      <c r="N1383" t="s">
+      <c r="N1383" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1383">
@@ -61694,7 +61703,7 @@
       <c r="M1384" t="s">
         <v>13</v>
       </c>
-      <c r="N1384" t="s">
+      <c r="N1384" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1384">
@@ -61742,7 +61751,7 @@
       <c r="M1385" t="s">
         <v>13</v>
       </c>
-      <c r="N1385" t="s">
+      <c r="N1385" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1385">
@@ -61790,7 +61799,7 @@
       <c r="M1386" t="s">
         <v>13</v>
       </c>
-      <c r="N1386" t="s">
+      <c r="N1386" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1386">
@@ -61838,7 +61847,7 @@
       <c r="M1387" t="s">
         <v>13</v>
       </c>
-      <c r="N1387" t="s">
+      <c r="N1387" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1387">
@@ -61886,7 +61895,7 @@
       <c r="M1388" t="s">
         <v>13</v>
       </c>
-      <c r="N1388" t="s">
+      <c r="N1388" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1388">
@@ -61934,7 +61943,7 @@
       <c r="M1389" t="s">
         <v>13</v>
       </c>
-      <c r="N1389" t="s">
+      <c r="N1389" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1389">
@@ -61982,7 +61991,7 @@
       <c r="M1390" t="s">
         <v>13</v>
       </c>
-      <c r="N1390" t="s">
+      <c r="N1390" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1390">
@@ -62030,7 +62039,7 @@
       <c r="M1391" t="s">
         <v>13</v>
       </c>
-      <c r="N1391" t="s">
+      <c r="N1391" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1391">
@@ -62078,7 +62087,7 @@
       <c r="M1392" t="s">
         <v>13</v>
       </c>
-      <c r="N1392" t="s">
+      <c r="N1392" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1392">
@@ -62126,7 +62135,7 @@
       <c r="M1393" t="s">
         <v>13</v>
       </c>
-      <c r="N1393" t="s">
+      <c r="N1393" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1393">
@@ -62174,7 +62183,7 @@
       <c r="M1394" t="s">
         <v>14</v>
       </c>
-      <c r="N1394" t="s">
+      <c r="N1394" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1394">
@@ -62222,12 +62231,12 @@
       <c r="M1395" t="s">
         <v>13</v>
       </c>
-      <c r="N1395" t="s">
-        <v>13</v>
+      <c r="N1395" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1395">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4764.8999999999996</v>
       </c>
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.3">
@@ -62270,7 +62279,7 @@
       <c r="M1396" t="s">
         <v>13</v>
       </c>
-      <c r="N1396" t="s">
+      <c r="N1396" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1396">
@@ -62318,12 +62327,12 @@
       <c r="M1397" t="s">
         <v>13</v>
       </c>
-      <c r="N1397" t="s">
-        <v>13</v>
+      <c r="N1397" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1397">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4782.79</v>
       </c>
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.3">
@@ -62366,7 +62375,7 @@
       <c r="M1398" t="s">
         <v>13</v>
       </c>
-      <c r="N1398" t="s">
+      <c r="N1398" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1398">
@@ -62414,7 +62423,7 @@
       <c r="M1399" t="s">
         <v>13</v>
       </c>
-      <c r="N1399" t="s">
+      <c r="N1399" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1399">
@@ -62462,7 +62471,7 @@
       <c r="M1400" t="s">
         <v>13</v>
       </c>
-      <c r="N1400" t="s">
+      <c r="N1400" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1400">
@@ -62510,7 +62519,7 @@
       <c r="M1401" t="s">
         <v>14</v>
       </c>
-      <c r="N1401" t="s">
+      <c r="N1401" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1401">
@@ -62558,7 +62567,7 @@
       <c r="M1402" t="s">
         <v>14</v>
       </c>
-      <c r="N1402" t="s">
+      <c r="N1402" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1402">
@@ -62606,7 +62615,7 @@
       <c r="M1403" t="s">
         <v>14</v>
       </c>
-      <c r="N1403" t="s">
+      <c r="N1403" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1403">
@@ -62654,7 +62663,7 @@
       <c r="M1404" t="s">
         <v>14</v>
       </c>
-      <c r="N1404" t="s">
+      <c r="N1404" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1404">
@@ -62702,12 +62711,12 @@
       <c r="M1405" t="s">
         <v>13</v>
       </c>
-      <c r="N1405" t="s">
-        <v>13</v>
+      <c r="N1405" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1405">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4899.88</v>
       </c>
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.3">
@@ -62750,12 +62759,12 @@
       <c r="M1406" t="s">
         <v>14</v>
       </c>
-      <c r="N1406" t="s">
-        <v>13</v>
+      <c r="N1406" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1406">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4882.26</v>
       </c>
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.3">
@@ -62798,7 +62807,7 @@
       <c r="M1407" t="s">
         <v>13</v>
       </c>
-      <c r="N1407" t="s">
+      <c r="N1407" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1407">
@@ -62846,7 +62855,7 @@
       <c r="M1408" t="s">
         <v>13</v>
       </c>
-      <c r="N1408" t="s">
+      <c r="N1408" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1408">
@@ -62894,7 +62903,7 @@
       <c r="M1409" t="s">
         <v>13</v>
       </c>
-      <c r="N1409" t="s">
+      <c r="N1409" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1409">
@@ -62942,7 +62951,7 @@
       <c r="M1410" t="s">
         <v>13</v>
       </c>
-      <c r="N1410" t="s">
+      <c r="N1410" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1410">
@@ -62990,7 +62999,7 @@
       <c r="M1411" t="s">
         <v>13</v>
       </c>
-      <c r="N1411" t="s">
+      <c r="N1411" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1411">
@@ -63038,7 +63047,7 @@
       <c r="M1412" t="s">
         <v>13</v>
       </c>
-      <c r="N1412" t="s">
+      <c r="N1412" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1412">
@@ -63086,7 +63095,7 @@
       <c r="M1413" t="s">
         <v>15</v>
       </c>
-      <c r="N1413" t="s">
+      <c r="N1413" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1413">
@@ -63134,7 +63143,7 @@
       <c r="M1414" t="s">
         <v>13</v>
       </c>
-      <c r="N1414" t="s">
+      <c r="N1414" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1414">
@@ -63182,7 +63191,7 @@
       <c r="M1415" t="s">
         <v>13</v>
       </c>
-      <c r="N1415" t="s">
+      <c r="N1415" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1415">
@@ -63230,7 +63239,7 @@
       <c r="M1416" t="s">
         <v>13</v>
       </c>
-      <c r="N1416" t="s">
+      <c r="N1416" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1416">
@@ -63278,7 +63287,7 @@
       <c r="M1417" t="s">
         <v>13</v>
       </c>
-      <c r="N1417" t="s">
+      <c r="N1417" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1417">
@@ -63326,7 +63335,7 @@
       <c r="M1418" t="s">
         <v>15</v>
       </c>
-      <c r="N1418" t="s">
+      <c r="N1418" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1418">
@@ -63374,7 +63383,7 @@
       <c r="M1419" t="s">
         <v>13</v>
       </c>
-      <c r="N1419" t="s">
+      <c r="N1419" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1419">
@@ -63422,7 +63431,7 @@
       <c r="M1420" t="s">
         <v>13</v>
       </c>
-      <c r="N1420" t="s">
+      <c r="N1420" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1420">
@@ -63470,12 +63479,12 @@
       <c r="M1421" t="s">
         <v>13</v>
       </c>
-      <c r="N1421" t="s">
-        <v>13</v>
+      <c r="N1421" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1421">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5048.87</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.3">
@@ -63518,12 +63527,12 @@
       <c r="M1422" t="s">
         <v>13</v>
       </c>
-      <c r="N1422" t="s">
-        <v>14</v>
+      <c r="N1422" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O1422">
         <f t="shared" si="9"/>
-        <v>-5048.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.3">
@@ -63566,7 +63575,7 @@
       <c r="M1423" t="s">
         <v>13</v>
       </c>
-      <c r="N1423" t="s">
+      <c r="N1423" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1423">
@@ -63614,7 +63623,7 @@
       <c r="M1424" t="s">
         <v>13</v>
       </c>
-      <c r="N1424" t="s">
+      <c r="N1424" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1424">
@@ -63662,7 +63671,7 @@
       <c r="M1425" t="s">
         <v>13</v>
       </c>
-      <c r="N1425" t="s">
+      <c r="N1425" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1425">
@@ -63710,7 +63719,7 @@
       <c r="M1426" t="s">
         <v>13</v>
       </c>
-      <c r="N1426" t="s">
+      <c r="N1426" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1426">
@@ -63758,7 +63767,7 @@
       <c r="M1427" t="s">
         <v>13</v>
       </c>
-      <c r="N1427" t="s">
+      <c r="N1427" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1427">
@@ -63806,7 +63815,7 @@
       <c r="M1428" t="s">
         <v>13</v>
       </c>
-      <c r="N1428" t="s">
+      <c r="N1428" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O1428">
@@ -63854,7 +63863,7 @@
       <c r="M1429" t="s">
         <v>13</v>
       </c>
-      <c r="N1429" t="s">
+      <c r="N1429" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1429">
@@ -63902,7 +63911,7 @@
       <c r="M1430" t="s">
         <v>13</v>
       </c>
-      <c r="N1430" t="s">
+      <c r="N1430" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1430">
@@ -63950,12 +63959,12 @@
       <c r="M1431" t="s">
         <v>13</v>
       </c>
-      <c r="N1431" t="s">
-        <v>13</v>
+      <c r="N1431" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1431">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4992.5</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.3">
@@ -63998,12 +64007,12 @@
       <c r="M1432" t="s">
         <v>13</v>
       </c>
-      <c r="N1432" t="s">
-        <v>13</v>
+      <c r="N1432" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1432">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-5041.28</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.3">
@@ -64046,7 +64055,7 @@
       <c r="M1433" t="s">
         <v>13</v>
       </c>
-      <c r="N1433" t="s">
+      <c r="N1433" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1433">
@@ -64094,12 +64103,12 @@
       <c r="M1434" t="s">
         <v>13</v>
       </c>
-      <c r="N1434" t="s">
-        <v>13</v>
+      <c r="N1434" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1434">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4990.16</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.3">
@@ -64142,7 +64151,7 @@
       <c r="M1435" t="s">
         <v>14</v>
       </c>
-      <c r="N1435" t="s">
+      <c r="N1435" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1435">
@@ -64190,12 +64199,12 @@
       <c r="M1436" t="s">
         <v>13</v>
       </c>
-      <c r="N1436" t="s">
-        <v>13</v>
+      <c r="N1436" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1436">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4993.46</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.3">
@@ -64238,7 +64247,7 @@
       <c r="M1437" t="s">
         <v>13</v>
       </c>
-      <c r="N1437" t="s">
+      <c r="N1437" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1437">
@@ -64286,7 +64295,7 @@
       <c r="M1438" t="s">
         <v>13</v>
       </c>
-      <c r="N1438" t="s">
+      <c r="N1438" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1438">
@@ -64334,7 +64343,7 @@
       <c r="M1439" t="s">
         <v>13</v>
       </c>
-      <c r="N1439" t="s">
+      <c r="N1439" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1439">
@@ -64382,7 +64391,7 @@
       <c r="M1440" t="s">
         <v>13</v>
       </c>
-      <c r="N1440" t="s">
+      <c r="N1440" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1440">
@@ -64430,7 +64439,7 @@
       <c r="M1441" t="s">
         <v>13</v>
       </c>
-      <c r="N1441" t="s">
+      <c r="N1441" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O1441">
@@ -64478,7 +64487,7 @@
       <c r="M1442" t="s">
         <v>13</v>
       </c>
-      <c r="N1442" t="s">
+      <c r="N1442" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O1442">
@@ -64526,12 +64535,12 @@
       <c r="M1443" t="s">
         <v>14</v>
       </c>
-      <c r="N1443" t="s">
-        <v>13</v>
+      <c r="N1443" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1443">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4983.95</v>
       </c>
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.3">
@@ -64574,7 +64583,7 @@
       <c r="M1444" t="s">
         <v>13</v>
       </c>
-      <c r="N1444" t="s">
+      <c r="N1444" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1444">
@@ -64622,7 +64631,7 @@
       <c r="M1445" t="s">
         <v>13</v>
       </c>
-      <c r="N1445" t="s">
+      <c r="N1445" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1445">
@@ -64670,7 +64679,7 @@
       <c r="M1446" t="s">
         <v>13</v>
       </c>
-      <c r="N1446" t="s">
+      <c r="N1446" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1446">
@@ -64718,7 +64727,7 @@
       <c r="M1447" t="s">
         <v>14</v>
       </c>
-      <c r="N1447" t="s">
+      <c r="N1447" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1447">
@@ -64766,7 +64775,7 @@
       <c r="M1448" t="s">
         <v>14</v>
       </c>
-      <c r="N1448" t="s">
+      <c r="N1448" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1448">
@@ -64814,7 +64823,7 @@
       <c r="M1449" t="s">
         <v>13</v>
       </c>
-      <c r="N1449" t="s">
+      <c r="N1449" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1449">
@@ -64862,7 +64871,7 @@
       <c r="M1450" t="s">
         <v>13</v>
       </c>
-      <c r="N1450" t="s">
+      <c r="N1450" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1450">
@@ -64910,7 +64919,7 @@
       <c r="M1451" t="s">
         <v>13</v>
       </c>
-      <c r="N1451" t="s">
+      <c r="N1451" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1451">
@@ -64958,7 +64967,7 @@
       <c r="M1452" t="s">
         <v>13</v>
       </c>
-      <c r="N1452" t="s">
+      <c r="N1452" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1452">
@@ -65006,7 +65015,7 @@
       <c r="M1453" t="s">
         <v>15</v>
       </c>
-      <c r="N1453" t="s">
+      <c r="N1453" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1453">
@@ -65054,7 +65063,7 @@
       <c r="M1454" t="s">
         <v>13</v>
       </c>
-      <c r="N1454" t="s">
+      <c r="N1454" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1454">
@@ -65102,12 +65111,12 @@
       <c r="M1455" t="s">
         <v>13</v>
       </c>
-      <c r="N1455" t="s">
-        <v>13</v>
+      <c r="N1455" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1455">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="1456" spans="1:15" x14ac:dyDescent="0.3">
@@ -65150,12 +65159,12 @@
       <c r="M1456" t="s">
         <v>13</v>
       </c>
-      <c r="N1456" t="s">
-        <v>13</v>
+      <c r="N1456" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1456">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5230.38</v>
       </c>
     </row>
     <row r="1457" spans="1:15" x14ac:dyDescent="0.3">
@@ -65198,12 +65207,12 @@
       <c r="M1457" t="s">
         <v>13</v>
       </c>
-      <c r="N1457" t="s">
-        <v>13</v>
+      <c r="N1457" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1457">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5227.91</v>
       </c>
     </row>
     <row r="1458" spans="1:15" x14ac:dyDescent="0.3">
@@ -65246,7 +65255,7 @@
       <c r="M1458" t="s">
         <v>13</v>
       </c>
-      <c r="N1458" t="s">
+      <c r="N1458" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1458">
@@ -65294,7 +65303,7 @@
       <c r="M1459" t="s">
         <v>15</v>
       </c>
-      <c r="N1459" t="s">
+      <c r="N1459" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1459">
@@ -65342,7 +65351,7 @@
       <c r="M1460" t="s">
         <v>13</v>
       </c>
-      <c r="N1460" t="s">
+      <c r="N1460" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1460">
@@ -65390,7 +65399,7 @@
       <c r="M1461" t="s">
         <v>14</v>
       </c>
-      <c r="N1461" t="s">
+      <c r="N1461" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1461">
@@ -65438,7 +65447,7 @@
       <c r="M1462" t="s">
         <v>14</v>
       </c>
-      <c r="N1462" t="s">
+      <c r="N1462" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1462">
@@ -65486,7 +65495,7 @@
       <c r="M1463" t="s">
         <v>13</v>
       </c>
-      <c r="N1463" t="s">
+      <c r="N1463" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1463">
@@ -65534,7 +65543,7 @@
       <c r="M1464" t="s">
         <v>14</v>
       </c>
-      <c r="N1464" t="s">
+      <c r="N1464" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1464">
@@ -65582,7 +65591,7 @@
       <c r="M1465" t="s">
         <v>13</v>
       </c>
-      <c r="N1465" t="s">
+      <c r="N1465" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1465">
@@ -65630,12 +65639,12 @@
       <c r="M1466" t="s">
         <v>13</v>
       </c>
-      <c r="N1466" t="s">
-        <v>13</v>
+      <c r="N1466" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="O1466">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-5230</v>
       </c>
     </row>
     <row r="1467" spans="1:15" x14ac:dyDescent="0.3">
@@ -65678,7 +65687,7 @@
       <c r="M1467" t="s">
         <v>14</v>
       </c>
-      <c r="N1467" t="s">
+      <c r="N1467" s="2" t="s">
         <v>14</v>
       </c>
       <c r="O1467">
@@ -65726,12 +65735,12 @@
       <c r="M1468" t="s">
         <v>13</v>
       </c>
-      <c r="N1468" t="s">
-        <v>15</v>
+      <c r="N1468" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="O1468">
         <f t="shared" si="10"/>
-        <v>5225.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469" spans="1:15" x14ac:dyDescent="0.3">
@@ -65774,12 +65783,12 @@
       <c r="M1469" t="s">
         <v>13</v>
       </c>
-      <c r="N1469" t="s">
-        <v>13</v>
+      <c r="N1469" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1469">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5242.9</v>
       </c>
     </row>
     <row r="1470" spans="1:15" x14ac:dyDescent="0.3">
@@ -65822,7 +65831,7 @@
       <c r="M1470" t="s">
         <v>13</v>
       </c>
-      <c r="N1470" t="s">
+      <c r="N1470" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1470">
@@ -65870,7 +65879,7 @@
       <c r="M1471" t="s">
         <v>13</v>
       </c>
-      <c r="N1471" t="s">
+      <c r="N1471" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1471">
@@ -65918,7 +65927,7 @@
       <c r="M1472" t="s">
         <v>13</v>
       </c>
-      <c r="N1472" t="s">
+      <c r="N1472" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1472">
@@ -65966,7 +65975,7 @@
       <c r="M1473" t="s">
         <v>13</v>
       </c>
-      <c r="N1473" t="s">
+      <c r="N1473" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1473">
@@ -66014,7 +66023,7 @@
       <c r="M1474" t="s">
         <v>13</v>
       </c>
-      <c r="N1474" t="s">
+      <c r="N1474" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1474">
@@ -66062,7 +66071,7 @@
       <c r="M1475" t="s">
         <v>13</v>
       </c>
-      <c r="N1475" t="s">
+      <c r="N1475" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1475">
@@ -66110,12 +66119,12 @@
       <c r="M1476" t="s">
         <v>13</v>
       </c>
-      <c r="N1476" t="s">
-        <v>13</v>
+      <c r="N1476" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="O1476">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5467.69</v>
       </c>
     </row>
     <row r="1477" spans="1:15" x14ac:dyDescent="0.3">
@@ -66158,7 +66167,7 @@
       <c r="M1477" t="s">
         <v>15</v>
       </c>
-      <c r="N1477" t="s">
+      <c r="N1477" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1477">
@@ -66167,9 +66176,33 @@
       </c>
     </row>
     <row r="1478" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N1478" s="2">
+        <v>14</v>
+      </c>
       <c r="O1478">
         <f>SUM(O1:O1477)</f>
-        <v>-494.22000000000025</v>
+        <v>232661.85</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N1479" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N1480">
+        <f>N1478-N1479</f>
+        <v>-57</v>
+      </c>
+      <c r="O1480">
+        <f>N1480*3884</f>
+        <v>-221388</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1481">
+        <f>O1478+O1480</f>
+        <v>11273.850000000006</v>
       </c>
     </row>
   </sheetData>
